--- a/output_extended.xlsx
+++ b/output_extended.xlsx
@@ -637,7 +637,7 @@
         <v>239</v>
       </c>
       <c r="D2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E2">
         <v>885</v>
@@ -646,40 +646,40 @@
         <v>1819</v>
       </c>
       <c r="G2">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="H2">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="I2">
         <v>3832</v>
       </c>
       <c r="J2">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="K2">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="L2">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="M2">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="N2">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="O2">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="P2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R2">
         <v>188882</v>
       </c>
       <c r="T2">
-        <v>159920</v>
+        <v>159918</v>
       </c>
       <c r="V2">
         <v>246747</v>
@@ -688,31 +688,31 @@
         <v>333157</v>
       </c>
       <c r="Z2">
-        <v>350487</v>
+        <v>350484</v>
       </c>
       <c r="AB2">
-        <v>352428</v>
+        <v>352429</v>
       </c>
       <c r="AD2">
         <v>341884</v>
       </c>
       <c r="AF2">
-        <v>409766</v>
+        <v>409768</v>
       </c>
       <c r="AH2">
-        <v>450726</v>
+        <v>450727</v>
       </c>
       <c r="AJ2">
-        <v>431225</v>
+        <v>431224</v>
       </c>
       <c r="AL2">
-        <v>400742</v>
+        <v>400741</v>
       </c>
       <c r="AN2">
-        <v>348016</v>
+        <v>348013</v>
       </c>
       <c r="AP2">
-        <v>285224</v>
+        <v>285228</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -726,40 +726,40 @@
         <v>227</v>
       </c>
       <c r="D3">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E3">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F3">
         <v>2064</v>
       </c>
       <c r="G3">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="H3">
-        <v>4060</v>
+        <v>4065</v>
       </c>
       <c r="I3">
-        <v>4130</v>
+        <v>4125</v>
       </c>
       <c r="J3">
-        <v>4863</v>
+        <v>4866</v>
       </c>
       <c r="K3">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="L3">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="M3">
         <v>2522</v>
       </c>
       <c r="N3">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="O3">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="P3">
         <v>32</v>
@@ -771,16 +771,16 @@
         <v>0.001201808536546627</v>
       </c>
       <c r="T3">
-        <v>159538</v>
+        <v>159534</v>
       </c>
       <c r="U3">
-        <v>0.002388694347173587</v>
+        <v>0.002401230630698233</v>
       </c>
       <c r="V3">
-        <v>245822</v>
+        <v>245823</v>
       </c>
       <c r="W3">
-        <v>0.003748779113829145</v>
+        <v>0.003744726379652032</v>
       </c>
       <c r="X3">
         <v>331093</v>
@@ -789,58 +789,58 @@
         <v>0.006195277301692595</v>
       </c>
       <c r="Z3">
-        <v>347080</v>
+        <v>347075</v>
       </c>
       <c r="AA3">
-        <v>0.00972075997112589</v>
+        <v>0.009726549571449767</v>
       </c>
       <c r="AB3">
-        <v>348368</v>
+        <v>348364</v>
       </c>
       <c r="AC3">
-        <v>0.01152008353479292</v>
+        <v>0.01153423810185881</v>
       </c>
       <c r="AD3">
-        <v>337754</v>
+        <v>337759</v>
       </c>
       <c r="AE3">
-        <v>0.01208012074270805</v>
+        <v>0.01206549589919388</v>
       </c>
       <c r="AF3">
-        <v>404903</v>
+        <v>404902</v>
       </c>
       <c r="AG3">
-        <v>0.01186774891035371</v>
+        <v>0.01187501220202651</v>
       </c>
       <c r="AH3">
-        <v>446945</v>
+        <v>446949</v>
       </c>
       <c r="AI3">
-        <v>0.008388688471488222</v>
+        <v>0.008382013946357772</v>
       </c>
       <c r="AJ3">
-        <v>428135</v>
+        <v>428136</v>
       </c>
       <c r="AK3">
-        <v>0.007165632790306685</v>
+        <v>0.007161011446487208</v>
       </c>
       <c r="AL3">
-        <v>398220</v>
+        <v>398219</v>
       </c>
       <c r="AM3">
-        <v>0.006293325880491688</v>
+        <v>0.006293341584714317</v>
       </c>
       <c r="AN3">
-        <v>345598</v>
+        <v>345593</v>
       </c>
       <c r="AO3">
-        <v>0.006947956415796975</v>
+        <v>0.006953763221488852</v>
       </c>
       <c r="AP3">
-        <v>283815</v>
+        <v>283822</v>
       </c>
       <c r="AQ3">
-        <v>0.004939977000532915</v>
+        <v>0.004929389821476152</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -857,40 +857,40 @@
         <v>604</v>
       </c>
       <c r="E4">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F4">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="G4">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="H4">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="I4">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="J4">
-        <v>4854</v>
+        <v>4860</v>
       </c>
       <c r="K4">
-        <v>3890</v>
+        <v>3886</v>
       </c>
       <c r="L4">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="M4">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="N4">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="O4">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="P4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R4">
         <v>187483</v>
@@ -899,76 +899,76 @@
         <v>0.006212398293180673</v>
       </c>
       <c r="T4">
-        <v>158934</v>
+        <v>158930</v>
       </c>
       <c r="U4">
-        <v>0.003785931878298587</v>
+        <v>0.003786026803063924</v>
       </c>
       <c r="V4">
         <v>244696</v>
       </c>
       <c r="W4">
-        <v>0.0045805501541766</v>
+        <v>0.004584599488249676</v>
       </c>
       <c r="X4">
-        <v>329247</v>
+        <v>329244</v>
       </c>
       <c r="Y4">
-        <v>0.00557547275236867</v>
+        <v>0.005584533650666127</v>
       </c>
       <c r="Z4">
-        <v>343707</v>
+        <v>343703</v>
       </c>
       <c r="AA4">
-        <v>0.009718220583150859</v>
+        <v>0.009715479363250018</v>
       </c>
       <c r="AB4">
-        <v>344331</v>
+        <v>344329</v>
       </c>
       <c r="AC4">
-        <v>0.01158832039682175</v>
+        <v>0.01158271233537335</v>
       </c>
       <c r="AD4">
-        <v>333658</v>
+        <v>333662</v>
       </c>
       <c r="AE4">
-        <v>0.01212716947837775</v>
+        <v>0.01212995064528258</v>
       </c>
       <c r="AF4">
-        <v>400049</v>
+        <v>400042</v>
       </c>
       <c r="AG4">
-        <v>0.01198805639869302</v>
+        <v>0.01200290440649836</v>
       </c>
       <c r="AH4">
-        <v>443055</v>
+        <v>443063</v>
       </c>
       <c r="AI4">
-        <v>0.008703531754466432</v>
+        <v>0.008694504294673441</v>
       </c>
       <c r="AJ4">
         <v>424975</v>
       </c>
       <c r="AK4">
-        <v>0.007380849498405877</v>
+        <v>0.007383167965319432</v>
       </c>
       <c r="AL4">
-        <v>395738</v>
+        <v>395740</v>
       </c>
       <c r="AM4">
-        <v>0.006232735673748179</v>
+        <v>0.006225217782175134</v>
       </c>
       <c r="AN4">
-        <v>343225</v>
+        <v>343221</v>
       </c>
       <c r="AO4">
-        <v>0.00686635918031933</v>
+        <v>0.006863564944891824</v>
       </c>
       <c r="AP4">
-        <v>281830</v>
+        <v>281836</v>
       </c>
       <c r="AQ4">
-        <v>0.006993992565579691</v>
+        <v>0.006997343405373791</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -979,100 +979,100 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>15292</v>
+        <v>15297</v>
       </c>
       <c r="D5">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="E5">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F5">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="G5">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H5">
         <v>1986</v>
       </c>
       <c r="I5">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="J5">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="K5">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="L5">
         <v>1593</v>
       </c>
       <c r="M5">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="N5">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="O5">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="P5">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R5">
-        <v>172191</v>
+        <v>172186</v>
       </c>
       <c r="S5">
-        <v>0.08156472853538721</v>
+        <v>0.08159139762005088</v>
       </c>
       <c r="T5">
-        <v>153882</v>
+        <v>153881</v>
       </c>
       <c r="U5">
-        <v>0.03178677941787157</v>
+        <v>0.03176870320266784</v>
       </c>
       <c r="V5">
-        <v>242842</v>
+        <v>242844</v>
       </c>
       <c r="W5">
-        <v>0.007576748291757937</v>
+        <v>0.007568574884754961</v>
       </c>
       <c r="X5">
-        <v>327368</v>
+        <v>327363</v>
       </c>
       <c r="Y5">
-        <v>0.005706961642778826</v>
+        <v>0.005713088165615774</v>
       </c>
       <c r="Z5">
-        <v>341903</v>
+        <v>341898</v>
       </c>
       <c r="AA5">
-        <v>0.005248656559220499</v>
+        <v>0.00525162713156417</v>
       </c>
       <c r="AB5">
-        <v>342345</v>
+        <v>342343</v>
       </c>
       <c r="AC5">
-        <v>0.005767706073516471</v>
+        <v>0.005767739574650988</v>
       </c>
       <c r="AD5">
-        <v>331707</v>
+        <v>331710</v>
       </c>
       <c r="AE5">
-        <v>0.005847304725197657</v>
+        <v>0.00585023167157183</v>
       </c>
       <c r="AF5">
-        <v>397596</v>
+        <v>397592</v>
       </c>
       <c r="AG5">
-        <v>0.006131748860764556</v>
+        <v>0.006124356942521035</v>
       </c>
       <c r="AH5">
-        <v>441067</v>
+        <v>441074</v>
       </c>
       <c r="AI5">
-        <v>0.004487027569940526</v>
+        <v>0.004489203566987087</v>
       </c>
       <c r="AJ5">
         <v>423382</v>
@@ -1081,22 +1081,22 @@
         <v>0.003748455791517148</v>
       </c>
       <c r="AL5">
-        <v>394458</v>
+        <v>394461</v>
       </c>
       <c r="AM5">
-        <v>0.003234463205454114</v>
+        <v>0.003231919947440238</v>
       </c>
       <c r="AN5">
-        <v>341918</v>
+        <v>341913</v>
       </c>
       <c r="AO5">
-        <v>0.003807997669167456</v>
+        <v>0.003810955623344725</v>
       </c>
       <c r="AP5">
-        <v>280380</v>
+        <v>280387</v>
       </c>
       <c r="AQ5">
-        <v>0.0051449455345421</v>
+        <v>0.005141287841155849</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1107,22 +1107,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>18206</v>
+        <v>18229</v>
       </c>
       <c r="D6">
-        <v>15987</v>
+        <v>15964</v>
       </c>
       <c r="E6">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F6">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G6">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="H6">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I6">
         <v>980</v>
@@ -1131,76 +1131,76 @@
         <v>1168</v>
       </c>
       <c r="K6">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L6">
         <v>816</v>
       </c>
       <c r="M6">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N6">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O6">
         <v>734</v>
       </c>
       <c r="P6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R6">
-        <v>153985</v>
+        <v>153957</v>
       </c>
       <c r="S6">
-        <v>0.1057314261488696</v>
+        <v>0.1058680728979127</v>
       </c>
       <c r="T6">
-        <v>137895</v>
+        <v>137917</v>
       </c>
       <c r="U6">
-        <v>0.1038912933286544</v>
+        <v>0.1037425023232238</v>
       </c>
       <c r="V6">
-        <v>240922</v>
+        <v>240923</v>
       </c>
       <c r="W6">
-        <v>0.007906375338697589</v>
+        <v>0.007910428093755662</v>
       </c>
       <c r="X6">
-        <v>325728</v>
+        <v>325724</v>
       </c>
       <c r="Y6">
-        <v>0.005009652745534078</v>
+        <v>0.005006674547826113</v>
       </c>
       <c r="Z6">
-        <v>340843</v>
+        <v>340835</v>
       </c>
       <c r="AA6">
-        <v>0.003100294527980158</v>
+        <v>0.003109114414240504</v>
       </c>
       <c r="AB6">
         <v>341322</v>
       </c>
       <c r="AC6">
-        <v>0.00298821364413092</v>
+        <v>0.002982389007515854</v>
       </c>
       <c r="AD6">
-        <v>330727</v>
+        <v>330730</v>
       </c>
       <c r="AE6">
-        <v>0.002954414588778651</v>
+        <v>0.002954387868921648</v>
       </c>
       <c r="AF6">
-        <v>396428</v>
+        <v>396424</v>
       </c>
       <c r="AG6">
-        <v>0.002937655308403505</v>
+        <v>0.002937684862874504</v>
       </c>
       <c r="AH6">
-        <v>440049</v>
+        <v>440057</v>
       </c>
       <c r="AI6">
-        <v>0.002308039368168555</v>
+        <v>0.00230573554550937</v>
       </c>
       <c r="AJ6">
         <v>422566</v>
@@ -1209,22 +1209,22 @@
         <v>0.001927337487186512</v>
       </c>
       <c r="AL6">
-        <v>393835</v>
+        <v>393836</v>
       </c>
       <c r="AM6">
-        <v>0.001579382342353305</v>
+        <v>0.001584440540382953</v>
       </c>
       <c r="AN6">
-        <v>341273</v>
+        <v>341269</v>
       </c>
       <c r="AO6">
-        <v>0.001886417211144192</v>
+        <v>0.001883520076744669</v>
       </c>
       <c r="AP6">
-        <v>279646</v>
+        <v>279653</v>
       </c>
       <c r="AQ6">
-        <v>0.002617875740067052</v>
+        <v>0.002617810383505655</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1235,124 +1235,124 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>12386</v>
+        <v>12398</v>
       </c>
       <c r="D7">
-        <v>10482</v>
+        <v>10474</v>
       </c>
       <c r="E7">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="F7">
         <v>2050</v>
       </c>
       <c r="G7">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H7">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="I7">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="J7">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="K7">
         <v>3951</v>
       </c>
       <c r="L7">
-        <v>2763</v>
+        <v>2757</v>
       </c>
       <c r="M7">
         <v>1837</v>
       </c>
       <c r="N7">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="O7">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="P7">
         <v>79</v>
       </c>
       <c r="R7">
-        <v>141599</v>
+        <v>141559</v>
       </c>
       <c r="S7">
-        <v>0.08043640614345553</v>
+        <v>0.08052897887072365</v>
       </c>
       <c r="T7">
-        <v>127413</v>
+        <v>127443</v>
       </c>
       <c r="U7">
-        <v>0.07601435875122375</v>
+        <v>0.07594422732513033</v>
       </c>
       <c r="V7">
-        <v>238740</v>
+        <v>238742</v>
       </c>
       <c r="W7">
-        <v>0.00905687317887117</v>
+        <v>0.009052684882721866</v>
       </c>
       <c r="X7">
-        <v>323678</v>
+        <v>323674</v>
       </c>
       <c r="Y7">
-        <v>0.006293594655663621</v>
+        <v>0.006293671943117486</v>
       </c>
       <c r="Z7">
-        <v>339342</v>
+        <v>339337</v>
       </c>
       <c r="AA7">
-        <v>0.004403787080855408</v>
+        <v>0.004395088532574413</v>
       </c>
       <c r="AB7">
-        <v>339112</v>
+        <v>339109</v>
       </c>
       <c r="AC7">
-        <v>0.006474824359402559</v>
+        <v>0.006483613713736589</v>
       </c>
       <c r="AD7">
-        <v>326892</v>
+        <v>326894</v>
       </c>
       <c r="AE7">
-        <v>0.01159566651649245</v>
+        <v>0.01159858494844737</v>
       </c>
       <c r="AF7">
-        <v>392181</v>
+        <v>392175</v>
       </c>
       <c r="AG7">
-        <v>0.01071316859555834</v>
+        <v>0.01071832179686396</v>
       </c>
       <c r="AH7">
-        <v>436098</v>
+        <v>436106</v>
       </c>
       <c r="AI7">
-        <v>0.008978545571061404</v>
+        <v>0.00897838234592337</v>
       </c>
       <c r="AJ7">
-        <v>419803</v>
+        <v>419809</v>
       </c>
       <c r="AK7">
-        <v>0.006538623552297156</v>
+        <v>0.006524424586928432</v>
       </c>
       <c r="AL7">
-        <v>391998</v>
+        <v>391999</v>
       </c>
       <c r="AM7">
-        <v>0.004664389909479858</v>
+        <v>0.004664378065997014</v>
       </c>
       <c r="AN7">
-        <v>339455</v>
+        <v>339448</v>
       </c>
       <c r="AO7">
-        <v>0.005327113483926358</v>
+        <v>0.005335966642150327</v>
       </c>
       <c r="AP7">
-        <v>278344</v>
+        <v>278355</v>
       </c>
       <c r="AQ7">
-        <v>0.00465588637062572</v>
+        <v>0.004641466388703143</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1366,121 +1366,121 @@
         <v>4591</v>
       </c>
       <c r="D8">
-        <v>3708</v>
+        <v>3710</v>
       </c>
       <c r="E8">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="F8">
         <v>2133</v>
       </c>
       <c r="G8">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="H8">
-        <v>3982</v>
+        <v>3977</v>
       </c>
       <c r="I8">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="J8">
-        <v>4282</v>
+        <v>4286</v>
       </c>
       <c r="K8">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="L8">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="M8">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="N8">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="O8">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P8">
         <v>49</v>
       </c>
       <c r="R8">
-        <v>137008</v>
+        <v>136968</v>
       </c>
       <c r="S8">
-        <v>0.03242254535695874</v>
+        <v>0.03243170692078921</v>
       </c>
       <c r="T8">
-        <v>123705</v>
+        <v>123733</v>
       </c>
       <c r="U8">
-        <v>0.02910221092039274</v>
+        <v>0.02911105356904655</v>
       </c>
       <c r="V8">
         <v>236911</v>
       </c>
       <c r="W8">
-        <v>0.007661053866130518</v>
+        <v>0.00766936693166682</v>
       </c>
       <c r="X8">
-        <v>321545</v>
+        <v>321541</v>
       </c>
       <c r="Y8">
-        <v>0.006589882537583648</v>
+        <v>0.006589963976099409</v>
       </c>
       <c r="Z8">
-        <v>335402</v>
+        <v>335394</v>
       </c>
       <c r="AA8">
-        <v>0.0116107054240265</v>
+        <v>0.01161971727221022</v>
       </c>
       <c r="AB8">
-        <v>335130</v>
+        <v>335132</v>
       </c>
       <c r="AC8">
-        <v>0.01174243317841893</v>
+        <v>0.01172779253868225</v>
       </c>
       <c r="AD8">
-        <v>323378</v>
+        <v>323379</v>
       </c>
       <c r="AE8">
-        <v>0.01074972773882506</v>
+        <v>0.01075272106554418</v>
       </c>
       <c r="AF8">
-        <v>387899</v>
+        <v>387889</v>
       </c>
       <c r="AG8">
-        <v>0.0109184279707584</v>
+        <v>0.01092879454325237</v>
       </c>
       <c r="AH8">
-        <v>432127</v>
+        <v>432137</v>
       </c>
       <c r="AI8">
-        <v>0.009105751459534324</v>
+        <v>0.009100998381127524</v>
       </c>
       <c r="AJ8">
-        <v>416823</v>
+        <v>416831</v>
       </c>
       <c r="AK8">
-        <v>0.007098567661498369</v>
+        <v>0.007093702135971359</v>
       </c>
       <c r="AL8">
-        <v>389925</v>
+        <v>389927</v>
       </c>
       <c r="AM8">
-        <v>0.005288292287205547</v>
+        <v>0.005285727769713699</v>
       </c>
       <c r="AN8">
-        <v>337770</v>
+        <v>337764</v>
       </c>
       <c r="AO8">
-        <v>0.004963839095019958</v>
+        <v>0.004960995498574156</v>
       </c>
       <c r="AP8">
-        <v>277532</v>
+        <v>277544</v>
       </c>
       <c r="AQ8">
-        <v>0.00291725347052568</v>
+        <v>0.002913545652134864</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1491,124 +1491,124 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3814</v>
+        <v>3821</v>
       </c>
       <c r="D9">
-        <v>2948</v>
+        <v>2941</v>
       </c>
       <c r="E9">
+        <v>1244</v>
+      </c>
+      <c r="F9">
         <v>1243</v>
       </c>
-      <c r="F9">
-        <v>1244</v>
-      </c>
       <c r="G9">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H9">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="I9">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="J9">
-        <v>5334</v>
+        <v>5338</v>
       </c>
       <c r="K9">
-        <v>5238</v>
+        <v>5233</v>
       </c>
       <c r="L9">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="M9">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="N9">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="O9">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="P9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R9">
-        <v>133194</v>
+        <v>133147</v>
       </c>
       <c r="S9">
-        <v>0.02783779049398575</v>
+        <v>0.02789702704281292</v>
       </c>
       <c r="T9">
-        <v>120757</v>
+        <v>120792</v>
       </c>
       <c r="U9">
-        <v>0.02383088799967665</v>
+        <v>0.02376892179127638</v>
       </c>
       <c r="V9">
-        <v>235668</v>
+        <v>235667</v>
       </c>
       <c r="W9">
-        <v>0.005246696016647602</v>
+        <v>0.005250917011029459</v>
       </c>
       <c r="X9">
-        <v>320301</v>
+        <v>320298</v>
       </c>
       <c r="Y9">
-        <v>0.003868820849336796</v>
+        <v>0.003865758954534569</v>
       </c>
       <c r="Z9">
-        <v>334092</v>
+        <v>334083</v>
       </c>
       <c r="AA9">
-        <v>0.003905760848176218</v>
+        <v>0.003908835578453998</v>
       </c>
       <c r="AB9">
-        <v>332681</v>
+        <v>332680</v>
       </c>
       <c r="AC9">
-        <v>0.007307611971473757</v>
+        <v>0.007316520057768282</v>
       </c>
       <c r="AD9">
         <v>318971</v>
       </c>
       <c r="AE9">
-        <v>0.01362801427431674</v>
+        <v>0.01363106447852211</v>
       </c>
       <c r="AF9">
-        <v>382565</v>
+        <v>382551</v>
       </c>
       <c r="AG9">
-        <v>0.01375100219387005</v>
+        <v>0.01376166893106017</v>
       </c>
       <c r="AH9">
-        <v>426889</v>
+        <v>426904</v>
       </c>
       <c r="AI9">
-        <v>0.01212143652213354</v>
+        <v>0.01210958561752407</v>
       </c>
       <c r="AJ9">
-        <v>412840</v>
+        <v>412851</v>
       </c>
       <c r="AK9">
-        <v>0.009555614733352046</v>
+        <v>0.009548234176440813</v>
       </c>
       <c r="AL9">
-        <v>387052</v>
+        <v>387049</v>
       </c>
       <c r="AM9">
-        <v>0.007368083605821633</v>
+        <v>0.007380868726710384</v>
       </c>
       <c r="AN9">
         <v>335482</v>
       </c>
       <c r="AO9">
-        <v>0.006773840187109571</v>
+        <v>0.0067561966343364</v>
       </c>
       <c r="AP9">
-        <v>276444</v>
+        <v>276454</v>
       </c>
       <c r="AQ9">
-        <v>0.003920268653704798</v>
+        <v>0.003927305220073214</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1625,118 +1625,118 @@
         <v>722</v>
       </c>
       <c r="E10">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="F10">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="G10">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="H10">
-        <v>5595</v>
+        <v>5596</v>
       </c>
       <c r="I10">
-        <v>6303</v>
+        <v>6307</v>
       </c>
       <c r="J10">
-        <v>7590</v>
+        <v>7589</v>
       </c>
       <c r="K10">
-        <v>7100</v>
+        <v>7096</v>
       </c>
       <c r="L10">
-        <v>5623</v>
+        <v>5627</v>
       </c>
       <c r="M10">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="N10">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="O10">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="P10">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R10">
-        <v>131729</v>
+        <v>131682</v>
       </c>
       <c r="S10">
-        <v>0.01099899394867637</v>
+        <v>0.01100287651993661</v>
       </c>
       <c r="T10">
-        <v>120035</v>
+        <v>120070</v>
       </c>
       <c r="U10">
-        <v>0.005978949460486762</v>
+        <v>0.005977217034240678</v>
       </c>
       <c r="V10">
-        <v>234495</v>
+        <v>234490</v>
       </c>
       <c r="W10">
-        <v>0.004977341005142828</v>
+        <v>0.004994335227248617</v>
       </c>
       <c r="X10">
-        <v>318238</v>
+        <v>318237</v>
       </c>
       <c r="Y10">
-        <v>0.006440816606879154</v>
+        <v>0.006434632748253189</v>
       </c>
       <c r="Z10">
-        <v>329644</v>
+        <v>329633</v>
       </c>
       <c r="AA10">
-        <v>0.01331369802329897</v>
+        <v>0.01332004322279194</v>
       </c>
       <c r="AB10">
-        <v>327086</v>
+        <v>327084</v>
       </c>
       <c r="AC10">
-        <v>0.01681791265506596</v>
+        <v>0.01682096909943489</v>
       </c>
       <c r="AD10">
-        <v>312668</v>
+        <v>312664</v>
       </c>
       <c r="AE10">
-        <v>0.01976041709120892</v>
+        <v>0.01977295741619144</v>
       </c>
       <c r="AF10">
-        <v>374975</v>
+        <v>374962</v>
       </c>
       <c r="AG10">
-        <v>0.01983976579143414</v>
+        <v>0.01983787782544027</v>
       </c>
       <c r="AH10">
-        <v>419789</v>
+        <v>419808</v>
       </c>
       <c r="AI10">
-        <v>0.01663195819053665</v>
+        <v>0.01662200401026929</v>
       </c>
       <c r="AJ10">
-        <v>407217</v>
+        <v>407224</v>
       </c>
       <c r="AK10">
-        <v>0.01362028873171204</v>
+        <v>0.0136296145582789</v>
       </c>
       <c r="AL10">
-        <v>382832</v>
+        <v>382831</v>
       </c>
       <c r="AM10">
-        <v>0.01090292777197896</v>
+        <v>0.01089784497570075</v>
       </c>
       <c r="AN10">
-        <v>332413</v>
+        <v>332415</v>
       </c>
       <c r="AO10">
-        <v>0.009148031787100351</v>
+        <v>0.009142070215391585</v>
       </c>
       <c r="AP10">
-        <v>274814</v>
+        <v>274827</v>
       </c>
       <c r="AQ10">
-        <v>0.005896311730404711</v>
+        <v>0.005885246731825186</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -1747,40 +1747,40 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D11">
-        <v>4177</v>
+        <v>4188</v>
       </c>
       <c r="E11">
-        <v>14627</v>
+        <v>14636</v>
       </c>
       <c r="F11">
-        <v>19660</v>
+        <v>19659</v>
       </c>
       <c r="G11">
-        <v>16339</v>
+        <v>16318</v>
       </c>
       <c r="H11">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="I11">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="J11">
         <v>1984</v>
       </c>
       <c r="K11">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="L11">
         <v>1306</v>
       </c>
       <c r="M11">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N11">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O11">
         <v>480</v>
@@ -1789,82 +1789,82 @@
         <v>57</v>
       </c>
       <c r="R11">
-        <v>129099</v>
+        <v>129051</v>
       </c>
       <c r="S11">
-        <v>0.01996523164982654</v>
+        <v>0.01997995170182713</v>
       </c>
       <c r="T11">
-        <v>115858</v>
+        <v>115882</v>
       </c>
       <c r="U11">
-        <v>0.03479818386303995</v>
+        <v>0.03487965353543766</v>
       </c>
       <c r="V11">
-        <v>219868</v>
+        <v>219854</v>
       </c>
       <c r="W11">
-        <v>0.06237659651591718</v>
+        <v>0.06241630773167299</v>
       </c>
       <c r="X11">
         <v>298578</v>
       </c>
       <c r="Y11">
-        <v>0.0617776632583161</v>
+        <v>0.06177471507084343</v>
       </c>
       <c r="Z11">
-        <v>313305</v>
+        <v>313315</v>
       </c>
       <c r="AA11">
-        <v>0.0495655919719455</v>
+        <v>0.04950353878404164</v>
       </c>
       <c r="AB11">
-        <v>325186</v>
+        <v>325183</v>
       </c>
       <c r="AC11">
-        <v>0.005808869838513419</v>
+        <v>0.005811962676254417</v>
       </c>
       <c r="AD11">
-        <v>310864</v>
+        <v>310862</v>
       </c>
       <c r="AE11">
-        <v>0.005769698210242174</v>
+        <v>0.005763375380600261</v>
       </c>
       <c r="AF11">
-        <v>372991</v>
+        <v>372978</v>
       </c>
       <c r="AG11">
-        <v>0.00529101940129342</v>
+        <v>0.005291202841887978</v>
       </c>
       <c r="AH11">
-        <v>418129</v>
+        <v>418145</v>
       </c>
       <c r="AI11">
-        <v>0.003954367551317448</v>
+        <v>0.00396133470538913</v>
       </c>
       <c r="AJ11">
-        <v>405911</v>
+        <v>405918</v>
       </c>
       <c r="AK11">
-        <v>0.003207135262034738</v>
+        <v>0.003207080132801603</v>
       </c>
       <c r="AL11">
-        <v>381871</v>
+        <v>381872</v>
       </c>
       <c r="AM11">
-        <v>0.002510239478413508</v>
+        <v>0.002505021798130246</v>
       </c>
       <c r="AN11">
-        <v>331632</v>
+        <v>331635</v>
       </c>
       <c r="AO11">
-        <v>0.002349486933423181</v>
+        <v>0.00234646450972429</v>
       </c>
       <c r="AP11">
-        <v>274334</v>
+        <v>274347</v>
       </c>
       <c r="AQ11">
-        <v>0.001746635906467647</v>
+        <v>0.001746553286249168</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -1875,37 +1875,37 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>7226</v>
+        <v>7229</v>
       </c>
       <c r="D12">
-        <v>12861</v>
+        <v>12895</v>
       </c>
       <c r="E12">
-        <v>34290</v>
+        <v>34277</v>
       </c>
       <c r="F12">
-        <v>20206</v>
+        <v>20201</v>
       </c>
       <c r="G12">
-        <v>13522</v>
+        <v>13511</v>
       </c>
       <c r="H12">
-        <v>5284</v>
+        <v>5280</v>
       </c>
       <c r="I12">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="J12">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="K12">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="L12">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M12">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="N12">
         <v>1168</v>
@@ -1917,82 +1917,82 @@
         <v>165</v>
       </c>
       <c r="R12">
-        <v>121873</v>
+        <v>121822</v>
       </c>
       <c r="S12">
-        <v>0.05597254819944384</v>
+        <v>0.05601661358687651</v>
       </c>
       <c r="T12">
-        <v>102997</v>
+        <v>102987</v>
       </c>
       <c r="U12">
-        <v>0.1110065770166929</v>
+        <v>0.1112769886608792</v>
       </c>
       <c r="V12">
-        <v>185578</v>
+        <v>185577</v>
       </c>
       <c r="W12">
-        <v>0.1559572106900504</v>
+        <v>0.1559080116804789</v>
       </c>
       <c r="X12">
-        <v>278372</v>
+        <v>278377</v>
       </c>
       <c r="Y12">
-        <v>0.0676741086081359</v>
+        <v>0.06765736256522584</v>
       </c>
       <c r="Z12">
-        <v>299783</v>
+        <v>299804</v>
       </c>
       <c r="AA12">
-        <v>0.04315922184452849</v>
+        <v>0.04312273590476039</v>
       </c>
       <c r="AB12">
-        <v>319902</v>
+        <v>319903</v>
       </c>
       <c r="AC12">
-        <v>0.01624916201804506</v>
+        <v>0.01623701115986998</v>
       </c>
       <c r="AD12">
-        <v>308409</v>
+        <v>308410</v>
       </c>
       <c r="AE12">
-        <v>0.007897344176231407</v>
+        <v>0.007887744401052558</v>
       </c>
       <c r="AF12">
-        <v>370202</v>
+        <v>370188</v>
       </c>
       <c r="AG12">
-        <v>0.007477392215897971</v>
+        <v>0.007480333960716182</v>
       </c>
       <c r="AH12">
-        <v>415511</v>
+        <v>415526</v>
       </c>
       <c r="AI12">
-        <v>0.006261225602625028</v>
+        <v>0.006263377536500496</v>
       </c>
       <c r="AJ12">
-        <v>403792</v>
+        <v>403800</v>
       </c>
       <c r="AK12">
-        <v>0.005220356186454667</v>
+        <v>0.005217802610379436</v>
       </c>
       <c r="AL12">
-        <v>380258</v>
+        <v>380260</v>
       </c>
       <c r="AM12">
-        <v>0.004223939497893268</v>
+        <v>0.0042213097582436</v>
       </c>
       <c r="AN12">
-        <v>330464</v>
+        <v>330467</v>
       </c>
       <c r="AO12">
-        <v>0.003521976166353066</v>
+        <v>0.003521944306240294</v>
       </c>
       <c r="AP12">
-        <v>273273</v>
+        <v>273286</v>
       </c>
       <c r="AQ12">
-        <v>0.003867548317015026</v>
+        <v>0.003867365052287796</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2003,124 +2003,124 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>14644</v>
+        <v>14662</v>
       </c>
       <c r="D13">
-        <v>19549</v>
+        <v>19570</v>
       </c>
       <c r="E13">
-        <v>27029</v>
+        <v>27004</v>
       </c>
       <c r="F13">
-        <v>13817</v>
+        <v>13822</v>
       </c>
       <c r="G13">
         <v>10685</v>
       </c>
       <c r="H13">
-        <v>11048</v>
+        <v>11029</v>
       </c>
       <c r="I13">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="J13">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="K13">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="L13">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="M13">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N13">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="O13">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="P13">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R13">
-        <v>107229</v>
+        <v>107160</v>
       </c>
       <c r="S13">
-        <v>0.1201578692573417</v>
+        <v>0.1203559291425194</v>
       </c>
       <c r="T13">
-        <v>83448</v>
+        <v>83417</v>
       </c>
       <c r="U13">
-        <v>0.1898016447080983</v>
+        <v>0.1900239836095818</v>
       </c>
       <c r="V13">
-        <v>158549</v>
+        <v>158573</v>
       </c>
       <c r="W13">
-        <v>0.145647652200153</v>
+        <v>0.145513722066851</v>
       </c>
       <c r="X13">
         <v>264555</v>
       </c>
       <c r="Y13">
-        <v>0.04963502076358255</v>
+        <v>0.04965209051035107</v>
       </c>
       <c r="Z13">
-        <v>289098</v>
+        <v>289119</v>
       </c>
       <c r="AA13">
-        <v>0.03564244803741373</v>
+        <v>0.03563995143493749</v>
       </c>
       <c r="AB13">
-        <v>308854</v>
+        <v>308874</v>
       </c>
       <c r="AC13">
-        <v>0.03453557652030934</v>
+        <v>0.03447607556040425</v>
       </c>
       <c r="AD13">
-        <v>305172</v>
+        <v>305171</v>
       </c>
       <c r="AE13">
-        <v>0.01049580265167359</v>
+        <v>0.01050225349372588</v>
       </c>
       <c r="AF13">
-        <v>366886</v>
+        <v>366871</v>
       </c>
       <c r="AG13">
-        <v>0.008957271975840217</v>
+        <v>0.00896031205765719</v>
       </c>
       <c r="AH13">
-        <v>412483</v>
+        <v>412500</v>
       </c>
       <c r="AI13">
-        <v>0.007287412366940947</v>
+        <v>0.007282336123371341</v>
       </c>
       <c r="AJ13">
-        <v>401318</v>
+        <v>401325</v>
       </c>
       <c r="AK13">
-        <v>0.006126916828466141</v>
+        <v>0.00612927191679049</v>
       </c>
       <c r="AL13">
-        <v>378330</v>
+        <v>378333</v>
       </c>
       <c r="AM13">
-        <v>0.005070241783210347</v>
+        <v>0.005067585336348814</v>
       </c>
       <c r="AN13">
-        <v>329076</v>
+        <v>329075</v>
       </c>
       <c r="AO13">
-        <v>0.004200154933669023</v>
+        <v>0.004212220887410846</v>
       </c>
       <c r="AP13">
-        <v>272064</v>
+        <v>272081</v>
       </c>
       <c r="AQ13">
-        <v>0.004424147281290139</v>
+        <v>0.004409300147098644</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2131,124 +2131,124 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>4431</v>
+        <v>4434</v>
       </c>
       <c r="D14">
-        <v>6219</v>
+        <v>6235</v>
       </c>
       <c r="E14">
-        <v>25350</v>
+        <v>25366</v>
       </c>
       <c r="F14">
-        <v>22292</v>
+        <v>22284</v>
       </c>
       <c r="G14">
-        <v>11740</v>
+        <v>11732</v>
       </c>
       <c r="H14">
-        <v>13193</v>
+        <v>13185</v>
       </c>
       <c r="I14">
-        <v>4250</v>
+        <v>4241</v>
       </c>
       <c r="J14">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="K14">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="L14">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="M14">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="N14">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="O14">
         <v>912</v>
       </c>
       <c r="P14">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R14">
-        <v>102798</v>
+        <v>102726</v>
       </c>
       <c r="S14">
-        <v>0.04132277648770388</v>
+        <v>0.04137737961926092</v>
       </c>
       <c r="T14">
-        <v>77229</v>
+        <v>77182</v>
       </c>
       <c r="U14">
-        <v>0.07452545297670406</v>
+        <v>0.07474495606411163</v>
       </c>
       <c r="V14">
-        <v>133199</v>
+        <v>133207</v>
       </c>
       <c r="W14">
-        <v>0.1598874795804452</v>
+        <v>0.1599641805351479</v>
       </c>
       <c r="X14">
-        <v>242263</v>
+        <v>242271</v>
       </c>
       <c r="Y14">
-        <v>0.08426225170569447</v>
+        <v>0.08423201224698078</v>
       </c>
       <c r="Z14">
-        <v>277358</v>
+        <v>277387</v>
       </c>
       <c r="AA14">
-        <v>0.04060906682163142</v>
+        <v>0.04057844693707435</v>
       </c>
       <c r="AB14">
-        <v>295661</v>
+        <v>295689</v>
       </c>
       <c r="AC14">
-        <v>0.0427159758332416</v>
+        <v>0.04268730938829426</v>
       </c>
       <c r="AD14">
-        <v>300922</v>
+        <v>300930</v>
       </c>
       <c r="AE14">
-        <v>0.01392657255580459</v>
+        <v>0.01389712652906076</v>
       </c>
       <c r="AF14">
-        <v>364376</v>
+        <v>364360</v>
       </c>
       <c r="AG14">
-        <v>0.006841362166994653</v>
+        <v>0.006844367638761308</v>
       </c>
       <c r="AH14">
-        <v>410006</v>
+        <v>410025</v>
       </c>
       <c r="AI14">
-        <v>0.006005095967591392</v>
+        <v>0.006</v>
       </c>
       <c r="AJ14">
-        <v>399345</v>
+        <v>399349</v>
       </c>
       <c r="AK14">
-        <v>0.004916300788900573</v>
+        <v>0.00492369027596088</v>
       </c>
       <c r="AL14">
-        <v>376737</v>
+        <v>376741</v>
       </c>
       <c r="AM14">
-        <v>0.004210609785108239</v>
+        <v>0.004207933222848654</v>
       </c>
       <c r="AN14">
-        <v>328022</v>
+        <v>328023</v>
       </c>
       <c r="AO14">
-        <v>0.003202907535037499</v>
+        <v>0.003196839626225025</v>
       </c>
       <c r="AP14">
-        <v>271152</v>
+        <v>271169</v>
       </c>
       <c r="AQ14">
-        <v>0.003352152434721242</v>
+        <v>0.003351942987566203</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2259,31 +2259,31 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="D15">
-        <v>3632</v>
+        <v>3637</v>
       </c>
       <c r="E15">
-        <v>13663</v>
+        <v>13682</v>
       </c>
       <c r="F15">
-        <v>23118</v>
+        <v>23106</v>
       </c>
       <c r="G15">
-        <v>11188</v>
+        <v>11193</v>
       </c>
       <c r="H15">
-        <v>20389</v>
+        <v>20398</v>
       </c>
       <c r="I15">
-        <v>17823</v>
+        <v>17804</v>
       </c>
       <c r="J15">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="K15">
-        <v>3053</v>
+        <v>3047</v>
       </c>
       <c r="L15">
         <v>2588</v>
@@ -2292,91 +2292,91 @@
         <v>2007</v>
       </c>
       <c r="N15">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="O15">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="P15">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R15">
-        <v>99861</v>
+        <v>99787</v>
       </c>
       <c r="S15">
-        <v>0.02857059475865289</v>
+        <v>0.02861008897455367</v>
       </c>
       <c r="T15">
-        <v>73597</v>
+        <v>73545</v>
       </c>
       <c r="U15">
-        <v>0.04702896580300146</v>
+        <v>0.04712238604856055</v>
       </c>
       <c r="V15">
-        <v>119536</v>
+        <v>119525</v>
       </c>
       <c r="W15">
-        <v>0.1025758451640027</v>
+        <v>0.1027123199231272</v>
       </c>
       <c r="X15">
-        <v>219145</v>
+        <v>219165</v>
       </c>
       <c r="Y15">
-        <v>0.09542521969925247</v>
+        <v>0.09537253736518196</v>
       </c>
       <c r="Z15">
-        <v>266170</v>
+        <v>266194</v>
       </c>
       <c r="AA15">
-        <v>0.0403377584205251</v>
+        <v>0.04035156658387019</v>
       </c>
       <c r="AB15">
-        <v>275272</v>
+        <v>275291</v>
       </c>
       <c r="AC15">
-        <v>0.06896073543686858</v>
+        <v>0.06898464264818779</v>
       </c>
       <c r="AD15">
-        <v>283099</v>
+        <v>283126</v>
       </c>
       <c r="AE15">
-        <v>0.0592279726972438</v>
+        <v>0.05916326055893397</v>
       </c>
       <c r="AF15">
-        <v>357623</v>
+        <v>357608</v>
       </c>
       <c r="AG15">
-        <v>0.0185330537686346</v>
+        <v>0.01853112306510045</v>
       </c>
       <c r="AH15">
-        <v>406953</v>
+        <v>406978</v>
       </c>
       <c r="AI15">
-        <v>0.007446232494158622</v>
+        <v>0.007431254191817572</v>
       </c>
       <c r="AJ15">
-        <v>396757</v>
+        <v>396761</v>
       </c>
       <c r="AK15">
-        <v>0.006480612002153527</v>
+        <v>0.006480547090389609</v>
       </c>
       <c r="AL15">
-        <v>374730</v>
+        <v>374734</v>
       </c>
       <c r="AM15">
-        <v>0.005327323835991687</v>
+        <v>0.005327267273803489</v>
       </c>
       <c r="AN15">
         <v>326755</v>
       </c>
       <c r="AO15">
-        <v>0.003862545804854553</v>
+        <v>0.003865582596342329</v>
       </c>
       <c r="AP15">
-        <v>269979</v>
+        <v>269997</v>
       </c>
       <c r="AQ15">
-        <v>0.004325986900336342</v>
+        <v>0.004322027960423204</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2387,124 +2387,124 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="D16">
         <v>2758</v>
       </c>
       <c r="E16">
-        <v>7664</v>
+        <v>7672</v>
       </c>
       <c r="F16">
-        <v>11615</v>
+        <v>11630</v>
       </c>
       <c r="G16">
-        <v>12219</v>
+        <v>12201</v>
       </c>
       <c r="H16">
-        <v>8477</v>
+        <v>8483</v>
       </c>
       <c r="I16">
-        <v>15257</v>
+        <v>15274</v>
       </c>
       <c r="J16">
-        <v>22080</v>
+        <v>22063</v>
       </c>
       <c r="K16">
-        <v>7487</v>
+        <v>7475</v>
       </c>
       <c r="L16">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="M16">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="N16">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O16">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P16">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R16">
-        <v>97181</v>
+        <v>97104</v>
       </c>
       <c r="S16">
-        <v>0.02683730385235477</v>
+        <v>0.02688726988485474</v>
       </c>
       <c r="T16">
-        <v>70839</v>
+        <v>70787</v>
       </c>
       <c r="U16">
-        <v>0.0374743535741946</v>
+        <v>0.03750084981983819</v>
       </c>
       <c r="V16">
-        <v>111872</v>
+        <v>111853</v>
       </c>
       <c r="W16">
-        <v>0.06411457636193281</v>
+        <v>0.06418740849194729</v>
       </c>
       <c r="X16">
-        <v>207530</v>
+        <v>207535</v>
       </c>
       <c r="Y16">
-        <v>0.05300143740445824</v>
+        <v>0.05306504231971346</v>
       </c>
       <c r="Z16">
-        <v>253951</v>
+        <v>253993</v>
       </c>
       <c r="AA16">
-        <v>0.04590675132434158</v>
+        <v>0.04583499252424923</v>
       </c>
       <c r="AB16">
-        <v>266795</v>
+        <v>266808</v>
       </c>
       <c r="AC16">
-        <v>0.03079499549536458</v>
+        <v>0.0308146652088154</v>
       </c>
       <c r="AD16">
-        <v>267842</v>
+        <v>267852</v>
       </c>
       <c r="AE16">
-        <v>0.05389280781634693</v>
+        <v>0.05394771232596088</v>
       </c>
       <c r="AF16">
-        <v>335543</v>
+        <v>335545</v>
       </c>
       <c r="AG16">
-        <v>0.06174099540577647</v>
+        <v>0.06169604706829825</v>
       </c>
       <c r="AH16">
-        <v>399466</v>
+        <v>399503</v>
       </c>
       <c r="AI16">
-        <v>0.01839770194592496</v>
+        <v>0.01836708618156264</v>
       </c>
       <c r="AJ16">
-        <v>394299</v>
+        <v>394304</v>
       </c>
       <c r="AK16">
-        <v>0.00619522780946524</v>
+        <v>0.006192644942421256</v>
       </c>
       <c r="AL16">
-        <v>372899</v>
+        <v>372902</v>
       </c>
       <c r="AM16">
-        <v>0.004886184719664825</v>
+        <v>0.004888801122929865</v>
       </c>
       <c r="AN16">
-        <v>325553</v>
+        <v>325554</v>
       </c>
       <c r="AO16">
-        <v>0.003678597114045692</v>
+        <v>0.00367553671711221</v>
       </c>
       <c r="AP16">
-        <v>269075</v>
+        <v>269092</v>
       </c>
       <c r="AQ16">
-        <v>0.003348408579926587</v>
+        <v>0.003351889095064019</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2515,40 +2515,40 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="D17">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="E17">
-        <v>5330</v>
+        <v>5339</v>
       </c>
       <c r="F17">
-        <v>10174</v>
+        <v>10182</v>
       </c>
       <c r="G17">
-        <v>8383</v>
+        <v>8375</v>
       </c>
       <c r="H17">
-        <v>6108</v>
+        <v>6105</v>
       </c>
       <c r="I17">
-        <v>7884</v>
+        <v>7888</v>
       </c>
       <c r="J17">
-        <v>12650</v>
+        <v>12648</v>
       </c>
       <c r="K17">
-        <v>6974</v>
+        <v>6969</v>
       </c>
       <c r="L17">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="M17">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="N17">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="O17">
         <v>1005</v>
@@ -2557,82 +2557,82 @@
         <v>165</v>
       </c>
       <c r="R17">
-        <v>95053</v>
+        <v>94972</v>
       </c>
       <c r="S17">
-        <v>0.02189728444860621</v>
+        <v>0.02195584115999341</v>
       </c>
       <c r="T17">
-        <v>68626</v>
+        <v>68577</v>
       </c>
       <c r="U17">
-        <v>0.03123985375287624</v>
+        <v>0.03122042182886688</v>
       </c>
       <c r="V17">
-        <v>106542</v>
+        <v>106514</v>
       </c>
       <c r="W17">
-        <v>0.0476437356979405</v>
+        <v>0.04773229148972312</v>
       </c>
       <c r="X17">
-        <v>197356</v>
+        <v>197353</v>
       </c>
       <c r="Y17">
-        <v>0.04902423745964439</v>
+        <v>0.04906160406678391</v>
       </c>
       <c r="Z17">
-        <v>245568</v>
+        <v>245618</v>
       </c>
       <c r="AA17">
-        <v>0.03301030513760529</v>
+        <v>0.03297334965924258</v>
       </c>
       <c r="AB17">
-        <v>260687</v>
+        <v>260703</v>
       </c>
       <c r="AC17">
-        <v>0.02289398227103207</v>
+        <v>0.02288162273994783</v>
       </c>
       <c r="AD17">
-        <v>259958</v>
+        <v>259964</v>
       </c>
       <c r="AE17">
-        <v>0.02943526407359563</v>
+        <v>0.02944909875602945</v>
       </c>
       <c r="AF17">
-        <v>322893</v>
+        <v>322897</v>
       </c>
       <c r="AG17">
-        <v>0.03770008612905052</v>
+        <v>0.0376939009670834</v>
       </c>
       <c r="AH17">
-        <v>392492</v>
+        <v>392534</v>
       </c>
       <c r="AI17">
-        <v>0.01745830683963091</v>
+        <v>0.01744417438667544</v>
       </c>
       <c r="AJ17">
-        <v>391773</v>
+        <v>391783</v>
       </c>
       <c r="AK17">
-        <v>0.006406305874475968</v>
+        <v>0.006393544067521506</v>
       </c>
       <c r="AL17">
-        <v>370923</v>
+        <v>370922</v>
       </c>
       <c r="AM17">
-        <v>0.005299021987186879</v>
+        <v>0.00530970603536586</v>
       </c>
       <c r="AN17">
-        <v>324211</v>
+        <v>324216</v>
       </c>
       <c r="AO17">
-        <v>0.00412221665903862</v>
+        <v>0.004109917248751359</v>
       </c>
       <c r="AP17">
-        <v>268070</v>
+        <v>268087</v>
       </c>
       <c r="AQ17">
-        <v>0.003735018117625197</v>
+        <v>0.003734782156288556</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2643,124 +2643,124 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="D18">
-        <v>3145</v>
+        <v>3150</v>
       </c>
       <c r="E18">
-        <v>6642</v>
+        <v>6652</v>
       </c>
       <c r="F18">
-        <v>16490</v>
+        <v>16495</v>
       </c>
       <c r="G18">
-        <v>13102</v>
+        <v>13088</v>
       </c>
       <c r="H18">
-        <v>4980</v>
+        <v>4975</v>
       </c>
       <c r="I18">
-        <v>5544</v>
+        <v>5545</v>
       </c>
       <c r="J18">
-        <v>9676</v>
+        <v>9693</v>
       </c>
       <c r="K18">
-        <v>10405</v>
+        <v>10390</v>
       </c>
       <c r="L18">
-        <v>5754</v>
+        <v>5750</v>
       </c>
       <c r="M18">
-        <v>4466</v>
+        <v>4469</v>
       </c>
       <c r="N18">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="O18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="P18">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="R18">
-        <v>92385</v>
+        <v>92302</v>
       </c>
       <c r="S18">
-        <v>0.02806855122931417</v>
+        <v>0.02811354925662301</v>
       </c>
       <c r="T18">
-        <v>65481</v>
+        <v>65427</v>
       </c>
       <c r="U18">
-        <v>0.04582811179436365</v>
+        <v>0.04593376788135964</v>
       </c>
       <c r="V18">
-        <v>99900</v>
+        <v>99862</v>
       </c>
       <c r="W18">
-        <v>0.06234161175874303</v>
+        <v>0.06245188425934619</v>
       </c>
       <c r="X18">
-        <v>180866</v>
+        <v>180858</v>
       </c>
       <c r="Y18">
-        <v>0.08355459170230446</v>
+        <v>0.08358119714420353</v>
       </c>
       <c r="Z18">
-        <v>232466</v>
+        <v>232530</v>
       </c>
       <c r="AA18">
-        <v>0.05335385718008861</v>
+        <v>0.05328599695462059</v>
       </c>
       <c r="AB18">
-        <v>255707</v>
+        <v>255728</v>
       </c>
       <c r="AC18">
-        <v>0.01910336917452731</v>
+        <v>0.01908301784022432</v>
       </c>
       <c r="AD18">
-        <v>254414</v>
+        <v>254419</v>
       </c>
       <c r="AE18">
-        <v>0.02132652197662699</v>
+        <v>0.02132987644443077</v>
       </c>
       <c r="AF18">
-        <v>313217</v>
+        <v>313204</v>
       </c>
       <c r="AG18">
-        <v>0.02996658335733509</v>
+        <v>0.03001886050350421</v>
       </c>
       <c r="AH18">
-        <v>382087</v>
+        <v>382144</v>
       </c>
       <c r="AI18">
-        <v>0.02651009447326315</v>
+        <v>0.02646904471969307</v>
       </c>
       <c r="AJ18">
-        <v>386019</v>
+        <v>386033</v>
       </c>
       <c r="AK18">
-        <v>0.01468707644477797</v>
+        <v>0.01467649183348946</v>
       </c>
       <c r="AL18">
-        <v>366457</v>
+        <v>366453</v>
       </c>
       <c r="AM18">
-        <v>0.01204023476570609</v>
+        <v>0.01204835517979521</v>
       </c>
       <c r="AN18">
-        <v>321532</v>
+        <v>321539</v>
       </c>
       <c r="AO18">
-        <v>0.008263137277883846</v>
+        <v>0.008256841118266835</v>
       </c>
       <c r="AP18">
-        <v>266151</v>
+        <v>266170</v>
       </c>
       <c r="AQ18">
-        <v>0.007158577983362555</v>
+        <v>0.007150663777057448</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -2771,124 +2771,124 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="D19">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E19">
-        <v>6749</v>
+        <v>6762</v>
       </c>
       <c r="F19">
-        <v>17153</v>
+        <v>17162</v>
       </c>
       <c r="G19">
-        <v>17982</v>
+        <v>17980</v>
       </c>
       <c r="H19">
-        <v>12828</v>
+        <v>12814</v>
       </c>
       <c r="I19">
-        <v>11304</v>
+        <v>11301</v>
       </c>
       <c r="J19">
-        <v>10147</v>
+        <v>10152</v>
       </c>
       <c r="K19">
-        <v>13118</v>
+        <v>13116</v>
       </c>
       <c r="L19">
-        <v>8851</v>
+        <v>8848</v>
       </c>
       <c r="M19">
         <v>6711</v>
       </c>
       <c r="N19">
-        <v>4589</v>
+        <v>4585</v>
       </c>
       <c r="O19">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="P19">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="R19">
-        <v>89342</v>
+        <v>89257</v>
       </c>
       <c r="S19">
-        <v>0.03293824755100936</v>
+        <v>0.03298953435461854</v>
       </c>
       <c r="T19">
-        <v>62661</v>
+        <v>62605</v>
       </c>
       <c r="U19">
-        <v>0.04306592752096028</v>
+        <v>0.04313204028917725</v>
       </c>
       <c r="V19">
-        <v>93151</v>
+        <v>93100</v>
       </c>
       <c r="W19">
-        <v>0.06755755755755756</v>
+        <v>0.06771344455348381</v>
       </c>
       <c r="X19">
-        <v>163713</v>
+        <v>163696</v>
       </c>
       <c r="Y19">
-        <v>0.09483816748310904</v>
+        <v>0.09489212531378208</v>
       </c>
       <c r="Z19">
-        <v>214484</v>
+        <v>214550</v>
       </c>
       <c r="AA19">
-        <v>0.07735324735660269</v>
+        <v>0.07732335612609126</v>
       </c>
       <c r="AB19">
-        <v>242879</v>
+        <v>242914</v>
       </c>
       <c r="AC19">
-        <v>0.05016679246168466</v>
+        <v>0.05010792717262091</v>
       </c>
       <c r="AD19">
-        <v>243110</v>
+        <v>243118</v>
       </c>
       <c r="AE19">
-        <v>0.04443151713349108</v>
+        <v>0.0444188523655859</v>
       </c>
       <c r="AF19">
-        <v>303070</v>
+        <v>303052</v>
       </c>
       <c r="AG19">
-        <v>0.03239607045594588</v>
+        <v>0.03241337913947459</v>
       </c>
       <c r="AH19">
-        <v>368969</v>
+        <v>369028</v>
       </c>
       <c r="AI19">
-        <v>0.0343324949553374</v>
+        <v>0.03432214034500083</v>
       </c>
       <c r="AJ19">
-        <v>377168</v>
+        <v>377185</v>
       </c>
       <c r="AK19">
-        <v>0.02292892318771874</v>
+        <v>0.02292032028349908</v>
       </c>
       <c r="AL19">
-        <v>359746</v>
+        <v>359742</v>
       </c>
       <c r="AM19">
-        <v>0.01831319909293587</v>
+        <v>0.01831339898977495</v>
       </c>
       <c r="AN19">
-        <v>316943</v>
+        <v>316954</v>
       </c>
       <c r="AO19">
-        <v>0.0142722963810756</v>
+        <v>0.01425954549836878</v>
       </c>
       <c r="AP19">
-        <v>262436</v>
+        <v>262453</v>
       </c>
       <c r="AQ19">
-        <v>0.01395824174998403</v>
+        <v>0.01396475936431604</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -2899,19 +2899,19 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>2453</v>
+        <v>2458</v>
       </c>
       <c r="D20">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E20">
-        <v>4802</v>
+        <v>4810</v>
       </c>
       <c r="F20">
-        <v>13737</v>
+        <v>13755</v>
       </c>
       <c r="G20">
-        <v>23727</v>
+        <v>23726</v>
       </c>
       <c r="H20">
         <v>21092</v>
@@ -2920,103 +2920,103 @@
         <v>20202</v>
       </c>
       <c r="J20">
-        <v>22435</v>
+        <v>22432</v>
       </c>
       <c r="K20">
-        <v>15601</v>
+        <v>15594</v>
       </c>
       <c r="L20">
-        <v>11126</v>
+        <v>11117</v>
       </c>
       <c r="M20">
-        <v>6411</v>
+        <v>6415</v>
       </c>
       <c r="N20">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="O20">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="P20">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="R20">
-        <v>86889</v>
+        <v>86799</v>
       </c>
       <c r="S20">
-        <v>0.02745629155380448</v>
+        <v>0.02753845636756781</v>
       </c>
       <c r="T20">
-        <v>60302</v>
+        <v>60250</v>
       </c>
       <c r="U20">
-        <v>0.03764702127320024</v>
+        <v>0.03761680376966696</v>
       </c>
       <c r="V20">
-        <v>88349</v>
+        <v>88290</v>
       </c>
       <c r="W20">
-        <v>0.05155070799025239</v>
+        <v>0.05166487647690655</v>
       </c>
       <c r="X20">
-        <v>149976</v>
+        <v>149941</v>
       </c>
       <c r="Y20">
-        <v>0.08390903593483719</v>
+        <v>0.08402770990128042</v>
       </c>
       <c r="Z20">
-        <v>190757</v>
+        <v>190824</v>
       </c>
       <c r="AA20">
-        <v>0.1106236362619123</v>
+        <v>0.1105849452342111</v>
       </c>
       <c r="AB20">
-        <v>221787</v>
+        <v>221822</v>
       </c>
       <c r="AC20">
-        <v>0.08684159602106399</v>
+        <v>0.0868290835439703</v>
       </c>
       <c r="AD20">
-        <v>222908</v>
+        <v>222916</v>
       </c>
       <c r="AE20">
-        <v>0.08309818600633458</v>
+        <v>0.08309545159140828</v>
       </c>
       <c r="AF20">
-        <v>280635</v>
+        <v>280620</v>
       </c>
       <c r="AG20">
-        <v>0.07402580261985679</v>
+        <v>0.07402030014650951</v>
       </c>
       <c r="AH20">
-        <v>353368</v>
+        <v>353434</v>
       </c>
       <c r="AI20">
-        <v>0.0422826849952164</v>
+        <v>0.04225695611173136</v>
       </c>
       <c r="AJ20">
-        <v>366042</v>
+        <v>366068</v>
       </c>
       <c r="AK20">
-        <v>0.0294987909896916</v>
+        <v>0.02947360048782428</v>
       </c>
       <c r="AL20">
-        <v>353335</v>
+        <v>353327</v>
       </c>
       <c r="AM20">
-        <v>0.01782090697325335</v>
+        <v>0.01783222420512478</v>
       </c>
       <c r="AN20">
-        <v>312315</v>
+        <v>312329</v>
       </c>
       <c r="AO20">
-        <v>0.0146019946804315</v>
+        <v>0.01459202281719114</v>
       </c>
       <c r="AP20">
-        <v>258790</v>
+        <v>258810</v>
       </c>
       <c r="AQ20">
-        <v>0.01389291103354723</v>
+        <v>0.01388058052298888</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3027,124 +3027,124 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="D21">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="E21">
         <v>4508</v>
       </c>
       <c r="F21">
-        <v>7105</v>
+        <v>7112</v>
       </c>
       <c r="G21">
-        <v>11432</v>
+        <v>11431</v>
       </c>
       <c r="H21">
-        <v>12230</v>
+        <v>12233</v>
       </c>
       <c r="I21">
-        <v>11377</v>
+        <v>11385</v>
       </c>
       <c r="J21">
-        <v>17079</v>
+        <v>17082</v>
       </c>
       <c r="K21">
-        <v>31321</v>
+        <v>31326</v>
       </c>
       <c r="L21">
-        <v>30273</v>
+        <v>30260</v>
       </c>
       <c r="M21">
-        <v>14342</v>
+        <v>14336</v>
       </c>
       <c r="N21">
-        <v>8235</v>
+        <v>8228</v>
       </c>
       <c r="O21">
-        <v>8157</v>
+        <v>8160</v>
       </c>
       <c r="P21">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="R21">
-        <v>84601</v>
+        <v>84510</v>
       </c>
       <c r="S21">
-        <v>0.02633244714520825</v>
+        <v>0.02637127155842809</v>
       </c>
       <c r="T21">
-        <v>57907</v>
+        <v>57851</v>
       </c>
       <c r="U21">
-        <v>0.03971675897980167</v>
+        <v>0.03981742738589212</v>
       </c>
       <c r="V21">
-        <v>83841</v>
+        <v>83782</v>
       </c>
       <c r="W21">
-        <v>0.05102491256267756</v>
+        <v>0.05105901008041681</v>
       </c>
       <c r="X21">
-        <v>142871</v>
+        <v>142829</v>
       </c>
       <c r="Y21">
-        <v>0.04737424654611404</v>
+        <v>0.04743198991603364</v>
       </c>
       <c r="Z21">
-        <v>179325</v>
+        <v>179393</v>
       </c>
       <c r="AA21">
-        <v>0.05992964871538135</v>
+        <v>0.05990336645285708</v>
       </c>
       <c r="AB21">
-        <v>209557</v>
+        <v>209589</v>
       </c>
       <c r="AC21">
-        <v>0.05514299756072268</v>
+        <v>0.05514782122602808</v>
       </c>
       <c r="AD21">
         <v>211531</v>
       </c>
       <c r="AE21">
-        <v>0.05103899366554812</v>
+        <v>0.05107304993809327</v>
       </c>
       <c r="AF21">
-        <v>263556</v>
+        <v>263538</v>
       </c>
       <c r="AG21">
-        <v>0.06085841039072104</v>
+        <v>0.0608723540731238</v>
       </c>
       <c r="AH21">
-        <v>322047</v>
+        <v>322108</v>
       </c>
       <c r="AI21">
-        <v>0.08863564329537479</v>
+        <v>0.08863323845470442</v>
       </c>
       <c r="AJ21">
-        <v>335769</v>
+        <v>335808</v>
       </c>
       <c r="AK21">
-        <v>0.08270362417427508</v>
+        <v>0.08266223761705475</v>
       </c>
       <c r="AL21">
-        <v>338993</v>
+        <v>338991</v>
       </c>
       <c r="AM21">
-        <v>0.04059037457370484</v>
+        <v>0.0405743121810674</v>
       </c>
       <c r="AN21">
-        <v>304080</v>
+        <v>304101</v>
       </c>
       <c r="AO21">
-        <v>0.02636760962489794</v>
+        <v>0.02634401544525164</v>
       </c>
       <c r="AP21">
-        <v>250633</v>
+        <v>250650</v>
       </c>
       <c r="AQ21">
-        <v>0.03151976506047374</v>
+        <v>0.03152892082995248</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3155,124 +3155,124 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D22">
         <v>1637</v>
       </c>
       <c r="E22">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="F22">
-        <v>5127</v>
+        <v>5135</v>
       </c>
       <c r="G22">
-        <v>7084</v>
+        <v>7080</v>
       </c>
       <c r="H22">
-        <v>9659</v>
+        <v>9662</v>
       </c>
       <c r="I22">
-        <v>10551</v>
+        <v>10558</v>
       </c>
       <c r="J22">
-        <v>14314</v>
+        <v>14311</v>
       </c>
       <c r="K22">
-        <v>19391</v>
+        <v>19408</v>
       </c>
       <c r="L22">
-        <v>23179</v>
+        <v>23188</v>
       </c>
       <c r="M22">
-        <v>27221</v>
+        <v>27202</v>
       </c>
       <c r="N22">
-        <v>13907</v>
+        <v>13903</v>
       </c>
       <c r="O22">
-        <v>9320</v>
+        <v>9311</v>
       </c>
       <c r="P22">
-        <v>3100</v>
+        <v>3108</v>
       </c>
       <c r="R22">
-        <v>82986</v>
+        <v>82893</v>
       </c>
       <c r="S22">
-        <v>0.01908960886987152</v>
+        <v>0.01913383031593894</v>
       </c>
       <c r="T22">
-        <v>56270</v>
+        <v>56214</v>
       </c>
       <c r="U22">
-        <v>0.02826946655844716</v>
+        <v>0.02829683151544485</v>
       </c>
       <c r="V22">
-        <v>80665</v>
+        <v>80607</v>
       </c>
       <c r="W22">
-        <v>0.03788122756169416</v>
+        <v>0.0378959681077081</v>
       </c>
       <c r="X22">
-        <v>137744</v>
+        <v>137694</v>
       </c>
       <c r="Y22">
-        <v>0.03588551910464685</v>
+        <v>0.03595208256026437</v>
       </c>
       <c r="Z22">
-        <v>172241</v>
+        <v>172313</v>
       </c>
       <c r="AA22">
-        <v>0.03950369440959153</v>
+        <v>0.0394664228816063</v>
       </c>
       <c r="AB22">
-        <v>199898</v>
+        <v>199927</v>
       </c>
       <c r="AC22">
-        <v>0.04609247126080255</v>
+        <v>0.0460997476012577</v>
       </c>
       <c r="AD22">
-        <v>200980</v>
+        <v>200973</v>
       </c>
       <c r="AE22">
-        <v>0.04987921392136377</v>
+        <v>0.04991230599770247</v>
       </c>
       <c r="AF22">
-        <v>249242</v>
+        <v>249227</v>
       </c>
       <c r="AG22">
-        <v>0.05431103826131828</v>
+        <v>0.0543033642207196</v>
       </c>
       <c r="AH22">
-        <v>302656</v>
+        <v>302700</v>
       </c>
       <c r="AI22">
-        <v>0.06021170822892311</v>
+        <v>0.06025308281694339</v>
       </c>
       <c r="AJ22">
-        <v>312590</v>
+        <v>312620</v>
       </c>
       <c r="AK22">
-        <v>0.06903257894564417</v>
+        <v>0.06905136268343816</v>
       </c>
       <c r="AL22">
-        <v>311772</v>
+        <v>311789</v>
       </c>
       <c r="AM22">
-        <v>0.08029959320693937</v>
+        <v>0.08024401827777139</v>
       </c>
       <c r="AN22">
-        <v>290173</v>
+        <v>290198</v>
       </c>
       <c r="AO22">
-        <v>0.04573467508550381</v>
+        <v>0.04571836330692763</v>
       </c>
       <c r="AP22">
-        <v>241313</v>
+        <v>241339</v>
       </c>
       <c r="AQ22">
-        <v>0.03718584543934757</v>
+        <v>0.03714741671653701</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3283,124 +3283,124 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D23">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E23">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="F23">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="G23">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="H23">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="I23">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="J23">
-        <v>7430</v>
+        <v>7437</v>
       </c>
       <c r="K23">
-        <v>11001</v>
+        <v>10996</v>
       </c>
       <c r="L23">
-        <v>13588</v>
+        <v>13597</v>
       </c>
       <c r="M23">
-        <v>15103</v>
+        <v>15112</v>
       </c>
       <c r="N23">
-        <v>15833</v>
+        <v>15824</v>
       </c>
       <c r="O23">
-        <v>12447</v>
+        <v>12440</v>
       </c>
       <c r="P23">
-        <v>4194</v>
+        <v>4196</v>
       </c>
       <c r="R23">
-        <v>81541</v>
+        <v>81446</v>
       </c>
       <c r="S23">
-        <v>0.017412575615164</v>
+        <v>0.01745623876563763</v>
       </c>
       <c r="T23">
-        <v>54965</v>
+        <v>54910</v>
       </c>
       <c r="U23">
-        <v>0.02319175404300693</v>
+        <v>0.02319706834596364</v>
       </c>
       <c r="V23">
-        <v>78330</v>
+        <v>78267</v>
       </c>
       <c r="W23">
-        <v>0.02894687906774933</v>
+        <v>0.02902973687148759</v>
       </c>
       <c r="X23">
-        <v>134154</v>
+        <v>134106</v>
       </c>
       <c r="Y23">
-        <v>0.0260628412126844</v>
+        <v>0.02605778029543771</v>
       </c>
       <c r="Z23">
-        <v>167897</v>
+        <v>167968</v>
       </c>
       <c r="AA23">
-        <v>0.02522047596100812</v>
+        <v>0.02521574112226007</v>
       </c>
       <c r="AB23">
-        <v>194932</v>
+        <v>194962</v>
       </c>
       <c r="AC23">
-        <v>0.02484266976157841</v>
+        <v>0.02483406443351823</v>
       </c>
       <c r="AD23">
-        <v>195974</v>
+        <v>195966</v>
       </c>
       <c r="AE23">
-        <v>0.02490795103990447</v>
+        <v>0.02491379439029123</v>
       </c>
       <c r="AF23">
-        <v>241812</v>
+        <v>241790</v>
       </c>
       <c r="AG23">
-        <v>0.02981038508758556</v>
+        <v>0.02984026610278983</v>
       </c>
       <c r="AH23">
-        <v>291655</v>
+        <v>291704</v>
       </c>
       <c r="AI23">
-        <v>0.03634819729329668</v>
+        <v>0.03632639577139082</v>
       </c>
       <c r="AJ23">
-        <v>299002</v>
+        <v>299023</v>
       </c>
       <c r="AK23">
-        <v>0.04346908090469945</v>
+        <v>0.04349369841980679</v>
       </c>
       <c r="AL23">
-        <v>296669</v>
+        <v>296677</v>
       </c>
       <c r="AM23">
-        <v>0.04844245153509616</v>
+        <v>0.0484686759314793</v>
       </c>
       <c r="AN23">
-        <v>274340</v>
+        <v>274374</v>
       </c>
       <c r="AO23">
-        <v>0.05456400147498217</v>
+        <v>0.0545282875829606</v>
       </c>
       <c r="AP23">
-        <v>228866</v>
+        <v>228899</v>
       </c>
       <c r="AQ23">
-        <v>0.05158031270590478</v>
+        <v>0.05154575099755945</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3411,124 +3411,124 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D24">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E24">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="F24">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="G24">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="H24">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="I24">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="J24">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="K24">
-        <v>5340</v>
+        <v>5346</v>
       </c>
       <c r="L24">
-        <v>6364</v>
+        <v>6361</v>
       </c>
       <c r="M24">
-        <v>8297</v>
+        <v>8301</v>
       </c>
       <c r="N24">
-        <v>11354</v>
+        <v>11359</v>
       </c>
       <c r="O24">
-        <v>8151</v>
+        <v>8141</v>
       </c>
       <c r="P24">
-        <v>2839</v>
+        <v>2845</v>
       </c>
       <c r="R24">
-        <v>80298</v>
+        <v>80202</v>
       </c>
       <c r="S24">
-        <v>0.01524386504948431</v>
+        <v>0.01527392382683005</v>
       </c>
       <c r="T24">
-        <v>53885</v>
+        <v>53831</v>
       </c>
       <c r="U24">
-        <v>0.01964886746111162</v>
+        <v>0.01965033691495174</v>
       </c>
       <c r="V24">
-        <v>76465</v>
+        <v>76400</v>
       </c>
       <c r="W24">
-        <v>0.02380952380952381</v>
+        <v>0.02385424252877969</v>
       </c>
       <c r="X24">
-        <v>131451</v>
+        <v>131399</v>
       </c>
       <c r="Y24">
-        <v>0.02014848606824992</v>
+        <v>0.02018552488330127</v>
       </c>
       <c r="Z24">
-        <v>164516</v>
+        <v>164585</v>
       </c>
       <c r="AA24">
-        <v>0.02013734611100854</v>
+        <v>0.02014074109354163</v>
       </c>
       <c r="AB24">
-        <v>190474</v>
+        <v>190505</v>
       </c>
       <c r="AC24">
-        <v>0.02286951347136437</v>
+        <v>0.02286086519424298</v>
       </c>
       <c r="AD24">
-        <v>191884</v>
+        <v>191878</v>
       </c>
       <c r="AE24">
-        <v>0.02087011542347454</v>
+        <v>0.02086076156067889</v>
       </c>
       <c r="AF24">
-        <v>236867</v>
+        <v>236846</v>
       </c>
       <c r="AG24">
-        <v>0.02044977089639886</v>
+        <v>0.02044749576078415</v>
       </c>
       <c r="AH24">
-        <v>286315</v>
+        <v>286358</v>
       </c>
       <c r="AI24">
-        <v>0.01830930380072346</v>
+        <v>0.01832679702712339</v>
       </c>
       <c r="AJ24">
-        <v>292638</v>
+        <v>292662</v>
       </c>
       <c r="AK24">
-        <v>0.021284138567635</v>
+        <v>0.02127261113693596</v>
       </c>
       <c r="AL24">
-        <v>288372</v>
+        <v>288376</v>
       </c>
       <c r="AM24">
-        <v>0.02796719576362883</v>
+        <v>0.02797992429477176</v>
       </c>
       <c r="AN24">
-        <v>262986</v>
+        <v>263015</v>
       </c>
       <c r="AO24">
-        <v>0.04138660056863746</v>
+        <v>0.04139969530640658</v>
       </c>
       <c r="AP24">
-        <v>220715</v>
+        <v>220758</v>
       </c>
       <c r="AQ24">
-        <v>0.03561472652119581</v>
+        <v>0.03556590461295157</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3539,124 +3539,124 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D25">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E25">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F25">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="G25">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="H25">
         <v>3725</v>
       </c>
       <c r="I25">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="J25">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="K25">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="L25">
         <v>5974</v>
       </c>
       <c r="M25">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="N25">
-        <v>4963</v>
+        <v>4975</v>
       </c>
       <c r="O25">
-        <v>9216</v>
+        <v>9204</v>
       </c>
       <c r="P25">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="R25">
-        <v>79287</v>
+        <v>79190</v>
       </c>
       <c r="S25">
-        <v>0.01259060001494433</v>
+        <v>0.01261813919852373</v>
       </c>
       <c r="T25">
-        <v>52907</v>
+        <v>52852</v>
       </c>
       <c r="U25">
-        <v>0.01814976338498655</v>
+        <v>0.01818654678530958</v>
       </c>
       <c r="V25">
-        <v>74655</v>
+        <v>74591</v>
       </c>
       <c r="W25">
-        <v>0.02367096057019551</v>
+        <v>0.02367801047120419</v>
       </c>
       <c r="X25">
-        <v>128542</v>
+        <v>128486</v>
       </c>
       <c r="Y25">
-        <v>0.02212991913336529</v>
+        <v>0.02216911848644206</v>
       </c>
       <c r="Z25">
-        <v>161243</v>
+        <v>161315</v>
       </c>
       <c r="AA25">
-        <v>0.01989472148605607</v>
+        <v>0.0198681532338913</v>
       </c>
       <c r="AB25">
-        <v>186749</v>
+        <v>186780</v>
       </c>
       <c r="AC25">
-        <v>0.01955647489946134</v>
+        <v>0.01955329256449962</v>
       </c>
       <c r="AD25">
-        <v>188457</v>
+        <v>188449</v>
       </c>
       <c r="AE25">
-        <v>0.01785974859811136</v>
+        <v>0.0178707303599162</v>
       </c>
       <c r="AF25">
-        <v>232376</v>
+        <v>232356</v>
       </c>
       <c r="AG25">
-        <v>0.01896000709258782</v>
+        <v>0.01895746603278079</v>
       </c>
       <c r="AH25">
-        <v>280857</v>
+        <v>280898</v>
       </c>
       <c r="AI25">
-        <v>0.01906292021025793</v>
+        <v>0.01906704195447656</v>
       </c>
       <c r="AJ25">
-        <v>286664</v>
+        <v>286688</v>
       </c>
       <c r="AK25">
-        <v>0.02041430026175685</v>
+        <v>0.02041262616943778</v>
       </c>
       <c r="AL25">
-        <v>281688</v>
+        <v>281693</v>
       </c>
       <c r="AM25">
-        <v>0.02317839457367567</v>
+        <v>0.02317460537631425</v>
       </c>
       <c r="AN25">
-        <v>258023</v>
+        <v>258040</v>
       </c>
       <c r="AO25">
-        <v>0.01887172701208429</v>
+        <v>0.01891527099214874</v>
       </c>
       <c r="AP25">
-        <v>211499</v>
+        <v>211554</v>
       </c>
       <c r="AQ25">
-        <v>0.04175520467571302</v>
+        <v>0.04169271328785367</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -3667,22 +3667,22 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D26">
         <v>851</v>
       </c>
       <c r="E26">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="F26">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="G26">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="H26">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="I26">
         <v>2791</v>
@@ -3691,100 +3691,100 @@
         <v>3446</v>
       </c>
       <c r="K26">
-        <v>3858</v>
+        <v>3862</v>
       </c>
       <c r="L26">
-        <v>4364</v>
+        <v>4360</v>
       </c>
       <c r="M26">
-        <v>5643</v>
+        <v>5648</v>
       </c>
       <c r="N26">
-        <v>6448</v>
+        <v>6445</v>
       </c>
       <c r="O26">
-        <v>5517</v>
+        <v>5519</v>
       </c>
       <c r="P26">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="R26">
-        <v>78363</v>
+        <v>78265</v>
       </c>
       <c r="S26">
-        <v>0.01165386507245829</v>
+        <v>0.0116807677737088</v>
       </c>
       <c r="T26">
-        <v>52056</v>
+        <v>52001</v>
       </c>
       <c r="U26">
-        <v>0.01608482809458106</v>
+        <v>0.01610156663891622</v>
       </c>
       <c r="V26">
-        <v>73102</v>
+        <v>73034</v>
       </c>
       <c r="W26">
-        <v>0.02080235751121827</v>
+        <v>0.02087383196364173</v>
       </c>
       <c r="X26">
-        <v>126327</v>
+        <v>126270</v>
       </c>
       <c r="Y26">
-        <v>0.0172317219274634</v>
+        <v>0.01724701523901437</v>
       </c>
       <c r="Z26">
-        <v>158449</v>
+        <v>158522</v>
       </c>
       <c r="AA26">
-        <v>0.01732788400116594</v>
+        <v>0.01731395096550228</v>
       </c>
       <c r="AB26">
-        <v>183776</v>
+        <v>183808</v>
       </c>
       <c r="AC26">
-        <v>0.0159197639612528</v>
+        <v>0.01591176785523075</v>
       </c>
       <c r="AD26">
-        <v>185666</v>
+        <v>185658</v>
       </c>
       <c r="AE26">
-        <v>0.01480974439792632</v>
+        <v>0.01481037309829185</v>
       </c>
       <c r="AF26">
-        <v>228930</v>
+        <v>228910</v>
       </c>
       <c r="AG26">
-        <v>0.01482941439735601</v>
+        <v>0.01483069083647506</v>
       </c>
       <c r="AH26">
-        <v>276999</v>
+        <v>277036</v>
       </c>
       <c r="AI26">
-        <v>0.01373652784157062</v>
+        <v>0.01374876289614024</v>
       </c>
       <c r="AJ26">
-        <v>282300</v>
+        <v>282328</v>
       </c>
       <c r="AK26">
-        <v>0.01522339742695281</v>
+        <v>0.01520817055474941</v>
       </c>
       <c r="AL26">
         <v>276045</v>
       </c>
       <c r="AM26">
-        <v>0.0200328022492971</v>
+        <v>0.02005019649050562</v>
       </c>
       <c r="AN26">
-        <v>251575</v>
+        <v>251595</v>
       </c>
       <c r="AO26">
-        <v>0.02499002026951086</v>
+        <v>0.02497674779104015</v>
       </c>
       <c r="AP26">
-        <v>205982</v>
+        <v>206035</v>
       </c>
       <c r="AQ26">
-        <v>0.02608522971739819</v>
+        <v>0.02608790190684175</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -3798,31 +3798,31 @@
         <v>919</v>
       </c>
       <c r="D27">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E27">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="F27">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="G27">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="H27">
-        <v>4339</v>
+        <v>4336</v>
       </c>
       <c r="I27">
-        <v>4589</v>
+        <v>4595</v>
       </c>
       <c r="J27">
-        <v>6262</v>
+        <v>6256</v>
       </c>
       <c r="K27">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="L27">
-        <v>6602</v>
+        <v>6609</v>
       </c>
       <c r="M27">
         <v>6898</v>
@@ -3831,70 +3831,70 @@
         <v>6951</v>
       </c>
       <c r="O27">
-        <v>9258</v>
+        <v>9259</v>
       </c>
       <c r="P27">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="R27">
-        <v>77444</v>
+        <v>77346</v>
       </c>
       <c r="S27">
-        <v>0.01172747342495821</v>
+        <v>0.01174215805276944</v>
       </c>
       <c r="T27">
-        <v>51186</v>
+        <v>51130</v>
       </c>
       <c r="U27">
-        <v>0.01671277086214846</v>
+        <v>0.01674967789080979</v>
       </c>
       <c r="V27">
-        <v>71507</v>
+        <v>71437</v>
       </c>
       <c r="W27">
-        <v>0.02181882848622473</v>
+        <v>0.02186652791850371</v>
       </c>
       <c r="X27">
-        <v>123850</v>
+        <v>123791</v>
       </c>
       <c r="Y27">
-        <v>0.0196078431372549</v>
+        <v>0.01963253346004593</v>
       </c>
       <c r="Z27">
-        <v>155276</v>
+        <v>155347</v>
       </c>
       <c r="AA27">
-        <v>0.02002537093954522</v>
+        <v>0.02002876572336963</v>
       </c>
       <c r="AB27">
-        <v>179437</v>
+        <v>179472</v>
       </c>
       <c r="AC27">
-        <v>0.02361026467003308</v>
+        <v>0.02358983286908078</v>
       </c>
       <c r="AD27">
-        <v>181077</v>
+        <v>181063</v>
       </c>
       <c r="AE27">
-        <v>0.02471642627083042</v>
+        <v>0.02474980878820196</v>
       </c>
       <c r="AF27">
-        <v>222668</v>
+        <v>222654</v>
       </c>
       <c r="AG27">
-        <v>0.02735333944873979</v>
+        <v>0.02732951815123848</v>
       </c>
       <c r="AH27">
-        <v>270590</v>
+        <v>270628</v>
       </c>
       <c r="AI27">
-        <v>0.0231372676435655</v>
+        <v>0.02313056786843587</v>
       </c>
       <c r="AJ27">
-        <v>275698</v>
+        <v>275719</v>
       </c>
       <c r="AK27">
-        <v>0.02338646829613886</v>
+        <v>0.02340894278994644</v>
       </c>
       <c r="AL27">
         <v>269147</v>
@@ -3903,16 +3903,16 @@
         <v>0.02498867938198482</v>
       </c>
       <c r="AN27">
-        <v>244624</v>
+        <v>244644</v>
       </c>
       <c r="AO27">
-        <v>0.02762993143197854</v>
+        <v>0.02762773505037858</v>
       </c>
       <c r="AP27">
-        <v>196724</v>
+        <v>196776</v>
       </c>
       <c r="AQ27">
-        <v>0.04494567486479401</v>
+        <v>0.04493896668041838</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -3929,118 +3929,118 @@
         <v>659</v>
       </c>
       <c r="E28">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="F28">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G28">
-        <v>2892</v>
+        <v>2897</v>
       </c>
       <c r="H28">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="I28">
         <v>5016</v>
       </c>
       <c r="J28">
-        <v>6631</v>
+        <v>6635</v>
       </c>
       <c r="K28">
-        <v>6988</v>
+        <v>6990</v>
       </c>
       <c r="L28">
-        <v>6861</v>
+        <v>6859</v>
       </c>
       <c r="M28">
-        <v>7084</v>
+        <v>7085</v>
       </c>
       <c r="N28">
-        <v>7482</v>
+        <v>7485</v>
       </c>
       <c r="O28">
-        <v>8614</v>
+        <v>8607</v>
       </c>
       <c r="P28">
-        <v>3387</v>
+        <v>3393</v>
       </c>
       <c r="R28">
-        <v>76805</v>
+        <v>76707</v>
       </c>
       <c r="S28">
-        <v>0.008251123392386758</v>
+        <v>0.008261577845008146</v>
       </c>
       <c r="T28">
-        <v>50527</v>
+        <v>50471</v>
       </c>
       <c r="U28">
-        <v>0.01287461415230727</v>
+        <v>0.01288871504009388</v>
       </c>
       <c r="V28">
-        <v>70279</v>
+        <v>70207</v>
       </c>
       <c r="W28">
-        <v>0.01717314388801097</v>
+        <v>0.01721796827974299</v>
       </c>
       <c r="X28">
-        <v>121916</v>
+        <v>121859</v>
       </c>
       <c r="Y28">
-        <v>0.01561566410981025</v>
+        <v>0.01560695042450582</v>
       </c>
       <c r="Z28">
-        <v>152384</v>
+        <v>152450</v>
       </c>
       <c r="AA28">
-        <v>0.01862490017774801</v>
+        <v>0.01864857383792413</v>
       </c>
       <c r="AB28">
-        <v>175081</v>
+        <v>175117</v>
       </c>
       <c r="AC28">
-        <v>0.02427592971349276</v>
+        <v>0.02426562360702505</v>
       </c>
       <c r="AD28">
-        <v>176061</v>
+        <v>176047</v>
       </c>
       <c r="AE28">
-        <v>0.02770092281184247</v>
+        <v>0.02770306467914483</v>
       </c>
       <c r="AF28">
-        <v>216037</v>
+        <v>216019</v>
       </c>
       <c r="AG28">
-        <v>0.02977976179783355</v>
+        <v>0.02979959937840775</v>
       </c>
       <c r="AH28">
-        <v>263602</v>
+        <v>263638</v>
       </c>
       <c r="AI28">
-        <v>0.02582504896707195</v>
+        <v>0.02582881298313552</v>
       </c>
       <c r="AJ28">
-        <v>268837</v>
+        <v>268860</v>
       </c>
       <c r="AK28">
-        <v>0.02488592590443166</v>
+        <v>0.02487677671832554</v>
       </c>
       <c r="AL28">
-        <v>262063</v>
+        <v>262062</v>
       </c>
       <c r="AM28">
-        <v>0.02632018933891145</v>
+        <v>0.0263239047806589</v>
       </c>
       <c r="AN28">
-        <v>237142</v>
+        <v>237159</v>
       </c>
       <c r="AO28">
-        <v>0.03058571522009288</v>
+        <v>0.03059547751017806</v>
       </c>
       <c r="AP28">
-        <v>188110</v>
+        <v>188169</v>
       </c>
       <c r="AQ28">
-        <v>0.04378723490778959</v>
+        <v>0.04374009025490914</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4057,118 +4057,118 @@
         <v>655</v>
       </c>
       <c r="E29">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F29">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="G29">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="H29">
         <v>3613</v>
       </c>
       <c r="I29">
-        <v>4040</v>
+        <v>4045</v>
       </c>
       <c r="J29">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="K29">
-        <v>5825</v>
+        <v>5835</v>
       </c>
       <c r="L29">
-        <v>6146</v>
+        <v>6140</v>
       </c>
       <c r="M29">
         <v>5999</v>
       </c>
       <c r="N29">
-        <v>5576</v>
+        <v>5573</v>
       </c>
       <c r="O29">
-        <v>6488</v>
+        <v>6494</v>
       </c>
       <c r="P29">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="R29">
-        <v>76052</v>
+        <v>75954</v>
       </c>
       <c r="S29">
-        <v>0.009804049215545863</v>
+        <v>0.009816574758496618</v>
       </c>
       <c r="T29">
-        <v>49872</v>
+        <v>49816</v>
       </c>
       <c r="U29">
-        <v>0.01296336612108378</v>
+        <v>0.0129777495987795</v>
       </c>
       <c r="V29">
-        <v>69133</v>
+        <v>69060</v>
       </c>
       <c r="W29">
-        <v>0.0163064357774015</v>
+        <v>0.01633740225333656</v>
       </c>
       <c r="X29">
-        <v>120137</v>
+        <v>120077</v>
       </c>
       <c r="Y29">
-        <v>0.01459201417369336</v>
+        <v>0.01462345825913556</v>
       </c>
       <c r="Z29">
-        <v>149718</v>
+        <v>149787</v>
       </c>
       <c r="AA29">
-        <v>0.01749527509449811</v>
+        <v>0.01746802230239423</v>
       </c>
       <c r="AB29">
-        <v>171468</v>
+        <v>171504</v>
       </c>
       <c r="AC29">
-        <v>0.02063616269041187</v>
+        <v>0.02063192037323618</v>
       </c>
       <c r="AD29">
-        <v>172021</v>
+        <v>172002</v>
       </c>
       <c r="AE29">
-        <v>0.02294659237423393</v>
+        <v>0.02297681869046334</v>
       </c>
       <c r="AF29">
-        <v>210729</v>
+        <v>210713</v>
       </c>
       <c r="AG29">
-        <v>0.02456986534713961</v>
+        <v>0.02456265421097218</v>
       </c>
       <c r="AH29">
-        <v>257777</v>
+        <v>257803</v>
       </c>
       <c r="AI29">
-        <v>0.02209770790813423</v>
+        <v>0.02213262124579916</v>
       </c>
       <c r="AJ29">
-        <v>262691</v>
+        <v>262720</v>
       </c>
       <c r="AK29">
-        <v>0.02286143648381733</v>
+        <v>0.02283716432343971</v>
       </c>
       <c r="AL29">
-        <v>256064</v>
+        <v>256063</v>
       </c>
       <c r="AM29">
-        <v>0.02289144213414332</v>
+        <v>0.02289152948538896</v>
       </c>
       <c r="AN29">
-        <v>231566</v>
+        <v>231586</v>
       </c>
       <c r="AO29">
-        <v>0.02351333800001687</v>
+        <v>0.02349900277872651</v>
       </c>
       <c r="AP29">
-        <v>181622</v>
+        <v>181675</v>
       </c>
       <c r="AQ29">
-        <v>0.03449045771091383</v>
+        <v>0.03451152952930611</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4179,7 +4179,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D30">
         <v>619</v>
@@ -4188,115 +4188,115 @@
         <v>1046</v>
       </c>
       <c r="F30">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="G30">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="H30">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="I30">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="J30">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="K30">
         <v>3165</v>
       </c>
       <c r="L30">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="M30">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="N30">
         <v>3451</v>
       </c>
       <c r="O30">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="P30">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="R30">
-        <v>75392</v>
+        <v>75293</v>
       </c>
       <c r="S30">
-        <v>0.00867827276074265</v>
+        <v>0.008702635805882509</v>
       </c>
       <c r="T30">
-        <v>49253</v>
+        <v>49197</v>
       </c>
       <c r="U30">
-        <v>0.01241177414180302</v>
+        <v>0.01242572667416091</v>
       </c>
       <c r="V30">
-        <v>68087</v>
+        <v>68014</v>
       </c>
       <c r="W30">
-        <v>0.01513025617288415</v>
+        <v>0.01514624963799594</v>
       </c>
       <c r="X30">
-        <v>118567</v>
+        <v>118503</v>
       </c>
       <c r="Y30">
-        <v>0.01306841356118432</v>
+        <v>0.01310825553603105</v>
       </c>
       <c r="Z30">
-        <v>147773</v>
+        <v>147846</v>
       </c>
       <c r="AA30">
-        <v>0.0129910899157082</v>
+        <v>0.01295840092931963</v>
       </c>
       <c r="AB30">
-        <v>169029</v>
+        <v>169064</v>
       </c>
       <c r="AC30">
-        <v>0.01422422842746168</v>
+        <v>0.01422707342102808</v>
       </c>
       <c r="AD30">
-        <v>169559</v>
+        <v>169538</v>
       </c>
       <c r="AE30">
-        <v>0.01431220606786381</v>
+        <v>0.0143254148207579</v>
       </c>
       <c r="AF30">
-        <v>207533</v>
+        <v>207518</v>
       </c>
       <c r="AG30">
-        <v>0.01516639854979618</v>
+        <v>0.01516280438321319</v>
       </c>
       <c r="AH30">
-        <v>254612</v>
+        <v>254638</v>
       </c>
       <c r="AI30">
-        <v>0.01227805428723276</v>
+        <v>0.01227681601843268</v>
       </c>
       <c r="AJ30">
-        <v>259632</v>
+        <v>259659</v>
       </c>
       <c r="AK30">
-        <v>0.01164486031116407</v>
+        <v>0.01165118757612667</v>
       </c>
       <c r="AL30">
         <v>252785</v>
       </c>
       <c r="AM30">
-        <v>0.01280539240189952</v>
+        <v>0.01280153712172395</v>
       </c>
       <c r="AN30">
-        <v>228115</v>
+        <v>228135</v>
       </c>
       <c r="AO30">
-        <v>0.01490287866094332</v>
+        <v>0.01490159163334571</v>
       </c>
       <c r="AP30">
-        <v>177779</v>
+        <v>177831</v>
       </c>
       <c r="AQ30">
-        <v>0.02115933091806059</v>
+        <v>0.02115866244667676</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4307,28 +4307,28 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D31">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E31">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F31">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="G31">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="H31">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="I31">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="J31">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="K31">
         <v>2957</v>
@@ -4343,70 +4343,70 @@
         <v>2729</v>
       </c>
       <c r="O31">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="P31">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R31">
-        <v>74779</v>
+        <v>74679</v>
       </c>
       <c r="S31">
-        <v>0.008130836162988115</v>
+        <v>0.008154808547939384</v>
       </c>
       <c r="T31">
-        <v>48713</v>
+        <v>48655</v>
       </c>
       <c r="U31">
-        <v>0.01096379915944207</v>
+        <v>0.0110169319267435</v>
       </c>
       <c r="V31">
-        <v>67244</v>
+        <v>67172</v>
       </c>
       <c r="W31">
-        <v>0.01238121814737028</v>
+        <v>0.01237980415796748</v>
       </c>
       <c r="X31">
-        <v>117167</v>
+        <v>117099</v>
       </c>
       <c r="Y31">
-        <v>0.0118076699250213</v>
+        <v>0.01184780132148553</v>
       </c>
       <c r="Z31">
-        <v>145983</v>
+        <v>146061</v>
       </c>
       <c r="AA31">
-        <v>0.0121131735838076</v>
+        <v>0.0120733736455501</v>
       </c>
       <c r="AB31">
-        <v>166627</v>
+        <v>166663</v>
       </c>
       <c r="AC31">
-        <v>0.01421057924971455</v>
+        <v>0.01420172242464392</v>
       </c>
       <c r="AD31">
-        <v>167212</v>
+        <v>167190</v>
       </c>
       <c r="AE31">
-        <v>0.01384178958356678</v>
+        <v>0.01384940249383619</v>
       </c>
       <c r="AF31">
-        <v>204565</v>
+        <v>204547</v>
       </c>
       <c r="AG31">
-        <v>0.01430134002785099</v>
+        <v>0.01431683034724699</v>
       </c>
       <c r="AH31">
-        <v>251655</v>
+        <v>251681</v>
       </c>
       <c r="AI31">
-        <v>0.01161374954833237</v>
+        <v>0.01161256371790542</v>
       </c>
       <c r="AJ31">
-        <v>256742</v>
+        <v>256769</v>
       </c>
       <c r="AK31">
-        <v>0.01113113945892648</v>
+        <v>0.01112998201487335</v>
       </c>
       <c r="AL31">
         <v>249809</v>
@@ -4415,16 +4415,16 @@
         <v>0.01177285044603121</v>
       </c>
       <c r="AN31">
-        <v>225386</v>
+        <v>225406</v>
       </c>
       <c r="AO31">
-        <v>0.01196326414308573</v>
+        <v>0.01196221535494335</v>
       </c>
       <c r="AP31">
-        <v>174796</v>
+        <v>174849</v>
       </c>
       <c r="AQ31">
-        <v>0.01677925964258996</v>
+        <v>0.01676872986149771</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -4435,124 +4435,124 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D32">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E32">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F32">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G32">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="H32">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="I32">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="J32">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="K32">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="L32">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="M32">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="N32">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="O32">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="P32">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="R32">
-        <v>74064</v>
+        <v>73963</v>
       </c>
       <c r="S32">
-        <v>0.009561507909974726</v>
+        <v>0.009587702031360891</v>
       </c>
       <c r="T32">
-        <v>48036</v>
+        <v>47979</v>
       </c>
       <c r="U32">
-        <v>0.01389772750600456</v>
+        <v>0.01389374165039564</v>
       </c>
       <c r="V32">
-        <v>66087</v>
+        <v>66011</v>
       </c>
       <c r="W32">
-        <v>0.01720599607399917</v>
+        <v>0.01728398737569225</v>
       </c>
       <c r="X32">
-        <v>115465</v>
+        <v>115399</v>
       </c>
       <c r="Y32">
-        <v>0.01452627446294605</v>
+        <v>0.0145176303811305</v>
       </c>
       <c r="Z32">
-        <v>143875</v>
+        <v>143950</v>
       </c>
       <c r="AA32">
-        <v>0.01444003753861751</v>
+        <v>0.01445286558355756</v>
       </c>
       <c r="AB32">
-        <v>163960</v>
+        <v>163997</v>
       </c>
       <c r="AC32">
-        <v>0.01600580938263307</v>
+        <v>0.01599635191974223</v>
       </c>
       <c r="AD32">
-        <v>164514</v>
+        <v>164493</v>
       </c>
       <c r="AE32">
-        <v>0.01613520560725307</v>
+        <v>0.01613134756863449</v>
       </c>
       <c r="AF32">
-        <v>201523</v>
+        <v>201503</v>
       </c>
       <c r="AG32">
-        <v>0.01487057903355902</v>
+        <v>0.01488166533852855</v>
       </c>
       <c r="AH32">
-        <v>248709</v>
+        <v>248733</v>
       </c>
       <c r="AI32">
-        <v>0.0117065029504679</v>
+        <v>0.01171324017307624</v>
       </c>
       <c r="AJ32">
-        <v>253645</v>
+        <v>253670</v>
       </c>
       <c r="AK32">
-        <v>0.01206269328742473</v>
+        <v>0.01206921396274472</v>
       </c>
       <c r="AL32">
-        <v>246737</v>
+        <v>246742</v>
       </c>
       <c r="AM32">
-        <v>0.01229739520994039</v>
+        <v>0.01227737991825755</v>
       </c>
       <c r="AN32">
-        <v>222550</v>
+        <v>222572</v>
       </c>
       <c r="AO32">
-        <v>0.01258285785275039</v>
+        <v>0.01257286851281687</v>
       </c>
       <c r="AP32">
-        <v>171917</v>
+        <v>171969</v>
       </c>
       <c r="AQ32">
-        <v>0.01647062861850386</v>
+        <v>0.01647135528370194</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -4563,19 +4563,19 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D33">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E33">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F33">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="G33">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="H33">
         <v>2139</v>
@@ -4587,10 +4587,10 @@
         <v>2533</v>
       </c>
       <c r="K33">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="L33">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="M33">
         <v>2758</v>
@@ -4599,88 +4599,88 @@
         <v>2475</v>
       </c>
       <c r="O33">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="P33">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="R33">
-        <v>73464</v>
+        <v>73361</v>
       </c>
       <c r="S33">
-        <v>0.008101101749837978</v>
+        <v>0.008139204737503887</v>
       </c>
       <c r="T33">
-        <v>47470</v>
+        <v>47414</v>
       </c>
       <c r="U33">
-        <v>0.01178282954450829</v>
+        <v>0.01177598532691386</v>
       </c>
       <c r="V33">
-        <v>65156</v>
+        <v>65079</v>
       </c>
       <c r="W33">
-        <v>0.01408749073191399</v>
+        <v>0.01411885897804911</v>
       </c>
       <c r="X33">
-        <v>114194</v>
+        <v>114126</v>
       </c>
       <c r="Y33">
-        <v>0.01100766466028667</v>
+        <v>0.01103129143233477</v>
       </c>
       <c r="Z33">
-        <v>142275</v>
+        <v>142353</v>
       </c>
       <c r="AA33">
-        <v>0.01112076455256299</v>
+        <v>0.01109412990621744</v>
       </c>
       <c r="AB33">
-        <v>161821</v>
+        <v>161858</v>
       </c>
       <c r="AC33">
-        <v>0.01304586484508417</v>
+        <v>0.01304292151685702</v>
       </c>
       <c r="AD33">
-        <v>162289</v>
+        <v>162268</v>
       </c>
       <c r="AE33">
-        <v>0.01352468482925465</v>
+        <v>0.01352641145823835</v>
       </c>
       <c r="AF33">
-        <v>198990</v>
+        <v>198970</v>
       </c>
       <c r="AG33">
-        <v>0.01256928489552061</v>
+        <v>0.01257053244864841</v>
       </c>
       <c r="AH33">
-        <v>246130</v>
+        <v>246153</v>
       </c>
       <c r="AI33">
-        <v>0.01036954834766735</v>
+        <v>0.0103725681755135</v>
       </c>
       <c r="AJ33">
-        <v>250964</v>
+        <v>250990</v>
       </c>
       <c r="AK33">
-        <v>0.01056989098937491</v>
+        <v>0.01056490716284937</v>
       </c>
       <c r="AL33">
-        <v>243979</v>
+        <v>243984</v>
       </c>
       <c r="AM33">
-        <v>0.0111778938708017</v>
+        <v>0.01117766736104919</v>
       </c>
       <c r="AN33">
-        <v>220075</v>
+        <v>220097</v>
       </c>
       <c r="AO33">
-        <v>0.01112109638283532</v>
+        <v>0.011119997124526</v>
       </c>
       <c r="AP33">
-        <v>169380</v>
+        <v>169429</v>
       </c>
       <c r="AQ33">
-        <v>0.01475712116893617</v>
+        <v>0.01477010391407754</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -4691,124 +4691,124 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D34">
         <v>558</v>
       </c>
       <c r="E34">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F34">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="G34">
         <v>1543</v>
       </c>
       <c r="H34">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="I34">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="J34">
         <v>2646</v>
       </c>
       <c r="K34">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="L34">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="M34">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="N34">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="O34">
-        <v>2983</v>
+        <v>2988</v>
       </c>
       <c r="P34">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="R34">
-        <v>72891</v>
+        <v>72787</v>
       </c>
       <c r="S34">
-        <v>0.007799738647500816</v>
+        <v>0.007824320824416243</v>
       </c>
       <c r="T34">
-        <v>46912</v>
+        <v>46856</v>
       </c>
       <c r="U34">
-        <v>0.01175479250052665</v>
+        <v>0.01176867591850508</v>
       </c>
       <c r="V34">
-        <v>64233</v>
+        <v>64157</v>
       </c>
       <c r="W34">
-        <v>0.01416600159616919</v>
+        <v>0.01416739654880991</v>
       </c>
       <c r="X34">
-        <v>112847</v>
+        <v>112776</v>
       </c>
       <c r="Y34">
-        <v>0.01179571606213987</v>
+        <v>0.01182903107092161</v>
       </c>
       <c r="Z34">
-        <v>140732</v>
+        <v>140810</v>
       </c>
       <c r="AA34">
-        <v>0.01084519416622738</v>
+        <v>0.01083925171931747</v>
       </c>
       <c r="AB34">
-        <v>159655</v>
+        <v>159694</v>
       </c>
       <c r="AC34">
-        <v>0.01338516014608734</v>
+        <v>0.01336974384954713</v>
       </c>
       <c r="AD34">
-        <v>160053</v>
+        <v>160031</v>
       </c>
       <c r="AE34">
-        <v>0.01377789006032448</v>
+        <v>0.01378583577784899</v>
       </c>
       <c r="AF34">
-        <v>196344</v>
+        <v>196324</v>
       </c>
       <c r="AG34">
-        <v>0.01329715061058345</v>
+        <v>0.013298487209127</v>
       </c>
       <c r="AH34">
-        <v>243438</v>
+        <v>243458</v>
       </c>
       <c r="AI34">
-        <v>0.01093730955186284</v>
+        <v>0.01094847513538328</v>
       </c>
       <c r="AJ34">
-        <v>248072</v>
+        <v>248101</v>
       </c>
       <c r="AK34">
-        <v>0.01152356513284774</v>
+        <v>0.01151041874178254</v>
       </c>
       <c r="AL34">
-        <v>241014</v>
+        <v>241018</v>
       </c>
       <c r="AM34">
-        <v>0.01215268527209309</v>
+        <v>0.01215653485474457</v>
       </c>
       <c r="AN34">
-        <v>217401</v>
+        <v>217425</v>
       </c>
       <c r="AO34">
-        <v>0.01215040327161195</v>
+        <v>0.01214010186417807</v>
       </c>
       <c r="AP34">
-        <v>166397</v>
+        <v>166441</v>
       </c>
       <c r="AQ34">
-        <v>0.0176112882276538</v>
+        <v>0.017635705811874</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -4819,124 +4819,124 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D35">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E35">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F35">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G35">
         <v>1307</v>
       </c>
       <c r="H35">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="I35">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="J35">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="K35">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="L35">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="M35">
         <v>2169</v>
       </c>
       <c r="N35">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="O35">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="P35">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="R35">
-        <v>72423</v>
+        <v>72318</v>
       </c>
       <c r="S35">
-        <v>0.006420545746388443</v>
+        <v>0.006443458309863025</v>
       </c>
       <c r="T35">
-        <v>46493</v>
+        <v>46438</v>
       </c>
       <c r="U35">
-        <v>0.008931616643929059</v>
+        <v>0.008920949291446132</v>
       </c>
       <c r="V35">
-        <v>63574</v>
+        <v>63497</v>
       </c>
       <c r="W35">
-        <v>0.01025952392072611</v>
+        <v>0.01028726405536418</v>
       </c>
       <c r="X35">
-        <v>111849</v>
+        <v>111779</v>
       </c>
       <c r="Y35">
-        <v>0.008843832800163053</v>
+        <v>0.008840533446832659</v>
       </c>
       <c r="Z35">
-        <v>139425</v>
+        <v>139503</v>
       </c>
       <c r="AA35">
-        <v>0.009287155728618936</v>
+        <v>0.009282011220793978</v>
       </c>
       <c r="AB35">
-        <v>158040</v>
+        <v>158078</v>
       </c>
       <c r="AC35">
-        <v>0.01011556167987222</v>
+        <v>0.01011935326311571</v>
       </c>
       <c r="AD35">
-        <v>158367</v>
+        <v>158342</v>
       </c>
       <c r="AE35">
-        <v>0.01053401060898577</v>
+        <v>0.01055420512275747</v>
       </c>
       <c r="AF35">
-        <v>194350</v>
+        <v>194333</v>
       </c>
       <c r="AG35">
-        <v>0.01015564519414904</v>
+        <v>0.01014139891200261</v>
       </c>
       <c r="AH35">
-        <v>241341</v>
+        <v>241358</v>
       </c>
       <c r="AI35">
-        <v>0.008614102974884776</v>
+        <v>0.008625717782944081</v>
       </c>
       <c r="AJ35">
-        <v>245957</v>
+        <v>245989</v>
       </c>
       <c r="AK35">
-        <v>0.008525750588538812</v>
+        <v>0.00851266218193397</v>
       </c>
       <c r="AL35">
-        <v>238845</v>
+        <v>238849</v>
       </c>
       <c r="AM35">
-        <v>0.00899947720879285</v>
+        <v>0.008999327851031873</v>
       </c>
       <c r="AN35">
-        <v>215426</v>
+        <v>215449</v>
       </c>
       <c r="AO35">
-        <v>0.009084594827070712</v>
+        <v>0.009088191330343796</v>
       </c>
       <c r="AP35">
-        <v>164209</v>
+        <v>164252</v>
       </c>
       <c r="AQ35">
-        <v>0.01314927552780399</v>
+        <v>0.01315180754741921</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -4953,28 +4953,28 @@
         <v>298</v>
       </c>
       <c r="E36">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F36">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G36">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H36">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I36">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J36">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="K36">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="L36">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="M36">
         <v>1634</v>
@@ -4983,88 +4983,88 @@
         <v>1586</v>
       </c>
       <c r="O36">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="P36">
         <v>779</v>
       </c>
       <c r="R36">
-        <v>72150</v>
+        <v>72045</v>
       </c>
       <c r="S36">
-        <v>0.003769520732364028</v>
+        <v>0.003774993777482784</v>
       </c>
       <c r="T36">
-        <v>46195</v>
+        <v>46140</v>
       </c>
       <c r="U36">
-        <v>0.006409567031596154</v>
+        <v>0.00641715836168655</v>
       </c>
       <c r="V36">
-        <v>63159</v>
+        <v>63081</v>
       </c>
       <c r="W36">
-        <v>0.006527825840752509</v>
+        <v>0.00655149062160417</v>
       </c>
       <c r="X36">
-        <v>111280</v>
+        <v>111211</v>
       </c>
       <c r="Y36">
-        <v>0.005087215799873043</v>
+        <v>0.005081455371760349</v>
       </c>
       <c r="Z36">
-        <v>138660</v>
+        <v>138737</v>
       </c>
       <c r="AA36">
-        <v>0.005486820871436256</v>
+        <v>0.005490921342193358</v>
       </c>
       <c r="AB36">
-        <v>157000</v>
+        <v>157037</v>
       </c>
       <c r="AC36">
-        <v>0.006580612503163756</v>
+        <v>0.006585356596110781</v>
       </c>
       <c r="AD36">
-        <v>157323</v>
+        <v>157299</v>
       </c>
       <c r="AE36">
-        <v>0.006592282483093069</v>
+        <v>0.006587007869042958</v>
       </c>
       <c r="AF36">
-        <v>192965</v>
+        <v>192947</v>
       </c>
       <c r="AG36">
-        <v>0.007126318497555956</v>
+        <v>0.007132087705124708</v>
       </c>
       <c r="AH36">
-        <v>239936</v>
+        <v>239951</v>
       </c>
       <c r="AI36">
-        <v>0.005821638262872865</v>
+        <v>0.005829514662865951</v>
       </c>
       <c r="AJ36">
-        <v>244473</v>
+        <v>244509</v>
       </c>
       <c r="AK36">
-        <v>0.006033574974487411</v>
+        <v>0.006016529194394871</v>
       </c>
       <c r="AL36">
-        <v>237211</v>
+        <v>237215</v>
       </c>
       <c r="AM36">
-        <v>0.006841256882078335</v>
+        <v>0.006841142311669716</v>
       </c>
       <c r="AN36">
-        <v>213840</v>
+        <v>213863</v>
       </c>
       <c r="AO36">
-        <v>0.007362156842720935</v>
+        <v>0.007361370904483196</v>
       </c>
       <c r="AP36">
-        <v>162264</v>
+        <v>162306</v>
       </c>
       <c r="AQ36">
-        <v>0.01184466137666023</v>
+        <v>0.01184764873487081</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5075,124 +5075,124 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D37">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F37">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G37">
         <v>692</v>
       </c>
       <c r="H37">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="I37">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J37">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="K37">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L37">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="M37">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="N37">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="O37">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="P37">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="R37">
-        <v>71840</v>
+        <v>71734</v>
       </c>
       <c r="S37">
-        <v>0.004296604296604297</v>
+        <v>0.004316746477895759</v>
       </c>
       <c r="T37">
-        <v>45930</v>
+        <v>45876</v>
       </c>
       <c r="U37">
-        <v>0.005736551574845762</v>
+        <v>0.005721716514954486</v>
       </c>
       <c r="V37">
-        <v>62702</v>
+        <v>62621</v>
       </c>
       <c r="W37">
-        <v>0.007235706708465935</v>
+        <v>0.007292211600957499</v>
       </c>
       <c r="X37">
-        <v>110692</v>
+        <v>110626</v>
       </c>
       <c r="Y37">
-        <v>0.005283968368080517</v>
+        <v>0.005260271016356296</v>
       </c>
       <c r="Z37">
-        <v>137968</v>
+        <v>138045</v>
       </c>
       <c r="AA37">
-        <v>0.004990624549257176</v>
+        <v>0.004987854717919517</v>
       </c>
       <c r="AB37">
-        <v>156140</v>
+        <v>156175</v>
       </c>
       <c r="AC37">
-        <v>0.005477707006369427</v>
+        <v>0.005489152238007603</v>
       </c>
       <c r="AD37">
-        <v>156378</v>
+        <v>156352</v>
       </c>
       <c r="AE37">
-        <v>0.00600675044335539</v>
+        <v>0.006020381566316378</v>
       </c>
       <c r="AF37">
-        <v>191804</v>
+        <v>191788</v>
       </c>
       <c r="AG37">
-        <v>0.006016635141087762</v>
+        <v>0.006006830891384681</v>
       </c>
       <c r="AH37">
-        <v>238676</v>
+        <v>238692</v>
       </c>
       <c r="AI37">
-        <v>0.005251400373432915</v>
+        <v>0.005246904576351005</v>
       </c>
       <c r="AJ37">
-        <v>243142</v>
+        <v>243176</v>
       </c>
       <c r="AK37">
-        <v>0.005444363999296446</v>
+        <v>0.00545174206266436</v>
       </c>
       <c r="AL37">
-        <v>235767</v>
+        <v>235774</v>
       </c>
       <c r="AM37">
-        <v>0.006087407413652824</v>
+        <v>0.00607465801066543</v>
       </c>
       <c r="AN37">
-        <v>212515</v>
+        <v>212535</v>
       </c>
       <c r="AO37">
-        <v>0.006196221473999252</v>
+        <v>0.006209582770278168</v>
       </c>
       <c r="AP37">
-        <v>160717</v>
+        <v>160762</v>
       </c>
       <c r="AQ37">
-        <v>0.009533846077996351</v>
+        <v>0.009512895395117864</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5203,124 +5203,124 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D38">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F38">
         <v>612</v>
       </c>
       <c r="G38">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H38">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I38">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="J38">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K38">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="L38">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="M38">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="N38">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="O38">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="P38">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="R38">
-        <v>71532</v>
+        <v>71425</v>
       </c>
       <c r="S38">
-        <v>0.004287305122494432</v>
+        <v>0.004307580784565199</v>
       </c>
       <c r="T38">
-        <v>45709</v>
+        <v>45656</v>
       </c>
       <c r="U38">
-        <v>0.004811669932505988</v>
+        <v>0.004795535792135321</v>
       </c>
       <c r="V38">
-        <v>62264</v>
+        <v>62182</v>
       </c>
       <c r="W38">
-        <v>0.006985423112500399</v>
+        <v>0.007010427811756439</v>
       </c>
       <c r="X38">
-        <v>110080</v>
+        <v>110014</v>
       </c>
       <c r="Y38">
-        <v>0.005528854840458208</v>
+        <v>0.005532153381664347</v>
       </c>
       <c r="Z38">
-        <v>137176</v>
+        <v>137254</v>
       </c>
       <c r="AA38">
-        <v>0.005740461556302911</v>
+        <v>0.005730015574631461</v>
       </c>
       <c r="AB38">
-        <v>155203</v>
+        <v>155237</v>
       </c>
       <c r="AC38">
-        <v>0.006001024721403869</v>
+        <v>0.006006082919801504</v>
       </c>
       <c r="AD38">
-        <v>155347</v>
+        <v>155320</v>
       </c>
       <c r="AE38">
-        <v>0.006592999015206743</v>
+        <v>0.006600491199345067</v>
       </c>
       <c r="AF38">
-        <v>190511</v>
+        <v>190496</v>
       </c>
       <c r="AG38">
-        <v>0.006741256699547455</v>
+        <v>0.006736605001355664</v>
       </c>
       <c r="AH38">
-        <v>237325</v>
+        <v>237342</v>
       </c>
       <c r="AI38">
-        <v>0.005660393168982219</v>
+        <v>0.005655824242119551</v>
       </c>
       <c r="AJ38">
-        <v>241643</v>
+        <v>241676</v>
       </c>
       <c r="AK38">
-        <v>0.006165121616174911</v>
+        <v>0.006168371878803829</v>
       </c>
       <c r="AL38">
-        <v>234223</v>
+        <v>234229</v>
       </c>
       <c r="AM38">
-        <v>0.006548838471881137</v>
+        <v>0.006552885390246592</v>
       </c>
       <c r="AN38">
-        <v>210950</v>
+        <v>210972</v>
       </c>
       <c r="AO38">
-        <v>0.007364186057454768</v>
+        <v>0.007354082856941209</v>
       </c>
       <c r="AP38">
-        <v>158945</v>
+        <v>158985</v>
       </c>
       <c r="AQ38">
-        <v>0.01102559156778686</v>
+        <v>0.01105360719573033</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5331,16 +5331,16 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D39">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F39">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G39">
         <v>1018</v>
@@ -5349,106 +5349,106 @@
         <v>1201</v>
       </c>
       <c r="I39">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="J39">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="K39">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="L39">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="M39">
         <v>2009</v>
       </c>
       <c r="N39">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="O39">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="P39">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="R39">
-        <v>71068</v>
+        <v>70960</v>
       </c>
       <c r="S39">
-        <v>0.006486607392495666</v>
+        <v>0.006510325516275814</v>
       </c>
       <c r="T39">
-        <v>45369</v>
+        <v>45317</v>
       </c>
       <c r="U39">
-        <v>0.007438360060381981</v>
+        <v>0.00742509199229017</v>
       </c>
       <c r="V39">
-        <v>61651</v>
+        <v>61565</v>
       </c>
       <c r="W39">
-        <v>0.009845175382243351</v>
+        <v>0.009922485606767232</v>
       </c>
       <c r="X39">
-        <v>109217</v>
+        <v>109154</v>
       </c>
       <c r="Y39">
-        <v>0.007839752906976744</v>
+        <v>0.007817186903485011</v>
       </c>
       <c r="Z39">
-        <v>136158</v>
+        <v>136236</v>
       </c>
       <c r="AA39">
-        <v>0.0074211232285531</v>
+        <v>0.007416905882524371</v>
       </c>
       <c r="AB39">
-        <v>154002</v>
+        <v>154036</v>
       </c>
       <c r="AC39">
-        <v>0.007738252482232946</v>
+        <v>0.007736557650560112</v>
       </c>
       <c r="AD39">
-        <v>154081</v>
+        <v>154052</v>
       </c>
       <c r="AE39">
-        <v>0.008149497576393494</v>
+        <v>0.008163790883337626</v>
       </c>
       <c r="AF39">
-        <v>188912</v>
+        <v>188899</v>
       </c>
       <c r="AG39">
-        <v>0.008393216139750461</v>
+        <v>0.008383378128674618</v>
       </c>
       <c r="AH39">
-        <v>235583</v>
+        <v>235597</v>
       </c>
       <c r="AI39">
-        <v>0.007340145370272833</v>
+        <v>0.007352259608497442</v>
       </c>
       <c r="AJ39">
-        <v>239889</v>
+        <v>239924</v>
       </c>
       <c r="AK39">
-        <v>0.007258641880791085</v>
+        <v>0.007249375196544133</v>
       </c>
       <c r="AL39">
-        <v>232214</v>
+        <v>232220</v>
       </c>
       <c r="AM39">
-        <v>0.008577295995696409</v>
+        <v>0.00857707628005072</v>
       </c>
       <c r="AN39">
-        <v>209200</v>
+        <v>209224</v>
       </c>
       <c r="AO39">
-        <v>0.008295804693055226</v>
+        <v>0.008285459681853517</v>
       </c>
       <c r="AP39">
-        <v>156911</v>
+        <v>156948</v>
       </c>
       <c r="AQ39">
-        <v>0.01279687942370002</v>
+        <v>0.01281252948391358</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -5462,28 +5462,28 @@
         <v>413</v>
       </c>
       <c r="D40">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E40">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F40">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G40">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H40">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="I40">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="J40">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="K40">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="L40">
         <v>1548</v>
@@ -5492,91 +5492,91 @@
         <v>1637</v>
       </c>
       <c r="N40">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="O40">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="P40">
         <v>737</v>
       </c>
       <c r="R40">
-        <v>70655</v>
+        <v>70547</v>
       </c>
       <c r="S40">
-        <v>0.005811335622220972</v>
+        <v>0.005820180383314544</v>
       </c>
       <c r="T40">
-        <v>45061</v>
+        <v>45008</v>
       </c>
       <c r="U40">
-        <v>0.006788776477330336</v>
+        <v>0.006818633184014829</v>
       </c>
       <c r="V40">
-        <v>61137</v>
+        <v>61052</v>
       </c>
       <c r="W40">
-        <v>0.008337253248122496</v>
+        <v>0.00833265654186632</v>
       </c>
       <c r="X40">
-        <v>108415</v>
+        <v>108351</v>
       </c>
       <c r="Y40">
-        <v>0.007343179175403097</v>
+        <v>0.007356578778606373</v>
       </c>
       <c r="Z40">
-        <v>135290</v>
+        <v>135366</v>
       </c>
       <c r="AA40">
-        <v>0.006374946753036913</v>
+        <v>0.006385977274729147</v>
       </c>
       <c r="AB40">
-        <v>152864</v>
+        <v>152900</v>
       </c>
       <c r="AC40">
-        <v>0.007389514421890625</v>
+        <v>0.007374899374172271</v>
       </c>
       <c r="AD40">
-        <v>152927</v>
+        <v>152894</v>
       </c>
       <c r="AE40">
-        <v>0.007489567175706285</v>
+        <v>0.007516942331160906</v>
       </c>
       <c r="AF40">
-        <v>187514</v>
+        <v>187503</v>
       </c>
       <c r="AG40">
-        <v>0.007400271025662743</v>
+        <v>0.00739019264262913</v>
       </c>
       <c r="AH40">
-        <v>234058</v>
+        <v>234073</v>
       </c>
       <c r="AI40">
-        <v>0.006473302402974748</v>
+        <v>0.006468673200422756</v>
       </c>
       <c r="AJ40">
-        <v>238341</v>
+        <v>238376</v>
       </c>
       <c r="AK40">
-        <v>0.006452984505333717</v>
+        <v>0.006452043146996549</v>
       </c>
       <c r="AL40">
-        <v>230577</v>
+        <v>230583</v>
       </c>
       <c r="AM40">
-        <v>0.007049531897301627</v>
+        <v>0.007049349754543106</v>
       </c>
       <c r="AN40">
-        <v>207612</v>
+        <v>207634</v>
       </c>
       <c r="AO40">
-        <v>0.007590822179732314</v>
+        <v>0.007599510572400872</v>
       </c>
       <c r="AP40">
-        <v>155250</v>
+        <v>155288</v>
       </c>
       <c r="AQ40">
-        <v>0.01058561859907846</v>
+        <v>0.01057675153554043</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -5587,124 +5587,124 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D41">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41">
         <v>482</v>
       </c>
       <c r="F41">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G41">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H41">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="I41">
         <v>956</v>
       </c>
       <c r="J41">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="K41">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L41">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="M41">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="N41">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="O41">
         <v>1278</v>
       </c>
       <c r="P41">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R41">
-        <v>70311</v>
+        <v>70202</v>
       </c>
       <c r="S41">
-        <v>0.004868728327789965</v>
+        <v>0.004890356783420982</v>
       </c>
       <c r="T41">
-        <v>44785</v>
+        <v>44733</v>
       </c>
       <c r="U41">
-        <v>0.006125030514191873</v>
+        <v>0.006110024884464984</v>
       </c>
       <c r="V41">
-        <v>60655</v>
+        <v>60570</v>
       </c>
       <c r="W41">
-        <v>0.007883932806647365</v>
+        <v>0.007894909257681977</v>
       </c>
       <c r="X41">
-        <v>107800</v>
+        <v>107735</v>
       </c>
       <c r="Y41">
-        <v>0.005672646773970391</v>
+        <v>0.005685226716873864</v>
       </c>
       <c r="Z41">
-        <v>134600</v>
+        <v>134677</v>
       </c>
       <c r="AA41">
-        <v>0.005100155222115456</v>
+        <v>0.005089904407310551</v>
       </c>
       <c r="AB41">
-        <v>151996</v>
+        <v>152031</v>
       </c>
       <c r="AC41">
-        <v>0.005678249947665899</v>
+        <v>0.005683453237410072</v>
       </c>
       <c r="AD41">
-        <v>151971</v>
+        <v>151938</v>
       </c>
       <c r="AE41">
-        <v>0.00625134868270482</v>
+        <v>0.006252697947597682</v>
       </c>
       <c r="AF41">
-        <v>186381</v>
+        <v>186367</v>
       </c>
       <c r="AG41">
-        <v>0.006042215514574911</v>
+        <v>0.006058569729550994</v>
       </c>
       <c r="AH41">
-        <v>232759</v>
+        <v>232777</v>
       </c>
       <c r="AI41">
-        <v>0.00554990643344812</v>
+        <v>0.005536734266660401</v>
       </c>
       <c r="AJ41">
-        <v>236965</v>
+        <v>236998</v>
       </c>
       <c r="AK41">
-        <v>0.005773240860783499</v>
+        <v>0.005780783300332248</v>
       </c>
       <c r="AL41">
-        <v>229180</v>
+        <v>229189</v>
       </c>
       <c r="AM41">
-        <v>0.006058713575074704</v>
+        <v>0.006045545421822077</v>
       </c>
       <c r="AN41">
-        <v>206213</v>
+        <v>206234</v>
       </c>
       <c r="AO41">
-        <v>0.006738531491435948</v>
+        <v>0.006742633672712561</v>
       </c>
       <c r="AP41">
-        <v>153972</v>
+        <v>154010</v>
       </c>
       <c r="AQ41">
-        <v>0.008231884057971015</v>
+        <v>0.008229869661532122</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -5721,10 +5721,10 @@
         <v>195</v>
       </c>
       <c r="E42">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F42">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G42">
         <v>600</v>
@@ -5733,106 +5733,106 @@
         <v>760</v>
       </c>
       <c r="I42">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J42">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="K42">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="L42">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M42">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="N42">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O42">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="P42">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R42">
-        <v>70051</v>
+        <v>69942</v>
       </c>
       <c r="S42">
-        <v>0.003697856665386639</v>
+        <v>0.00370359818808581</v>
       </c>
       <c r="T42">
-        <v>44590</v>
+        <v>44538</v>
       </c>
       <c r="U42">
-        <v>0.004354136429608127</v>
+        <v>0.004359197907585004</v>
       </c>
       <c r="V42">
-        <v>60324</v>
+        <v>60238</v>
       </c>
       <c r="W42">
-        <v>0.005457093397081857</v>
+        <v>0.005481261350503549</v>
       </c>
       <c r="X42">
-        <v>107343</v>
+        <v>107279</v>
       </c>
       <c r="Y42">
-        <v>0.004239332096474953</v>
+        <v>0.004232607787627048</v>
       </c>
       <c r="Z42">
-        <v>134000</v>
+        <v>134077</v>
       </c>
       <c r="AA42">
-        <v>0.004457652303120356</v>
+        <v>0.004455103692538443</v>
       </c>
       <c r="AB42">
-        <v>151236</v>
+        <v>151271</v>
       </c>
       <c r="AC42">
-        <v>0.005000131582410063</v>
+        <v>0.004998980471088133</v>
       </c>
       <c r="AD42">
-        <v>151232</v>
+        <v>151198</v>
       </c>
       <c r="AE42">
-        <v>0.004862769870567411</v>
+        <v>0.004870407666284932</v>
       </c>
       <c r="AF42">
-        <v>185406</v>
+        <v>185389</v>
       </c>
       <c r="AG42">
-        <v>0.005231219920485457</v>
+        <v>0.00524771016327998</v>
       </c>
       <c r="AH42">
-        <v>231761</v>
+        <v>231782</v>
       </c>
       <c r="AI42">
-        <v>0.004287696716346092</v>
+        <v>0.004274477289422924</v>
       </c>
       <c r="AJ42">
-        <v>235813</v>
+        <v>235847</v>
       </c>
       <c r="AK42">
-        <v>0.004861477433376237</v>
+        <v>0.004856581068194668</v>
       </c>
       <c r="AL42">
-        <v>227984</v>
+        <v>227989</v>
       </c>
       <c r="AM42">
-        <v>0.005218605462954883</v>
+        <v>0.005235853378652553</v>
       </c>
       <c r="AN42">
-        <v>205068</v>
+        <v>205090</v>
       </c>
       <c r="AO42">
-        <v>0.005552511238379734</v>
+        <v>0.005547096986917773</v>
       </c>
       <c r="AP42">
-        <v>152878</v>
+        <v>152918</v>
       </c>
       <c r="AQ42">
-        <v>0.007105187956251786</v>
+        <v>0.007090448672164146</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -5846,13 +5846,13 @@
         <v>231</v>
       </c>
       <c r="D43">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E43">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F43">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G43">
         <v>561</v>
@@ -5861,7 +5861,7 @@
         <v>647</v>
       </c>
       <c r="I43">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J43">
         <v>1036</v>
@@ -5870,97 +5870,97 @@
         <v>1024</v>
       </c>
       <c r="L43">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M43">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="N43">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="O43">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P43">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R43">
-        <v>69820</v>
+        <v>69711</v>
       </c>
       <c r="S43">
-        <v>0.003297597464704287</v>
+        <v>0.003302736553144034</v>
       </c>
       <c r="T43">
-        <v>44376</v>
+        <v>44323</v>
       </c>
       <c r="U43">
-        <v>0.004799282350302758</v>
+        <v>0.004827338452557367</v>
       </c>
       <c r="V43">
-        <v>59971</v>
+        <v>59886</v>
       </c>
       <c r="W43">
-        <v>0.005851733969895896</v>
+        <v>0.00584348749958498</v>
       </c>
       <c r="X43">
-        <v>106863</v>
+        <v>106798</v>
       </c>
       <c r="Y43">
-        <v>0.004471646963472234</v>
+        <v>0.004483636126362102</v>
       </c>
       <c r="Z43">
-        <v>133439</v>
+        <v>133516</v>
       </c>
       <c r="AA43">
-        <v>0.004186567164179105</v>
+        <v>0.004184162831805604</v>
       </c>
       <c r="AB43">
-        <v>150589</v>
+        <v>150624</v>
       </c>
       <c r="AC43">
-        <v>0.004278081938162872</v>
+        <v>0.004277092106219963</v>
       </c>
       <c r="AD43">
-        <v>150532</v>
+        <v>150497</v>
       </c>
       <c r="AE43">
-        <v>0.004628650021159543</v>
+        <v>0.004636304713025305</v>
       </c>
       <c r="AF43">
-        <v>184370</v>
+        <v>184353</v>
       </c>
       <c r="AG43">
-        <v>0.005587737182183964</v>
+        <v>0.005588249572520484</v>
       </c>
       <c r="AH43">
-        <v>230737</v>
+        <v>230758</v>
       </c>
       <c r="AI43">
-        <v>0.004418344760335</v>
+        <v>0.004417944447800088</v>
       </c>
       <c r="AJ43">
-        <v>234683</v>
+        <v>234718</v>
       </c>
       <c r="AK43">
-        <v>0.004791932590654459</v>
+        <v>0.004787001742655196</v>
       </c>
       <c r="AL43">
-        <v>226898</v>
+        <v>226900</v>
       </c>
       <c r="AM43">
-        <v>0.004763492174889466</v>
+        <v>0.00477654623687985</v>
       </c>
       <c r="AN43">
-        <v>204025</v>
+        <v>204049</v>
       </c>
       <c r="AO43">
-        <v>0.005086117775567129</v>
+        <v>0.0050758203715442</v>
       </c>
       <c r="AP43">
-        <v>151885</v>
+        <v>151924</v>
       </c>
       <c r="AQ43">
-        <v>0.006495375397375686</v>
+        <v>0.006500215801933062</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -5977,7 +5977,7 @@
         <v>192</v>
       </c>
       <c r="E44">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F44">
         <v>483</v>
@@ -5986,7 +5986,7 @@
         <v>576</v>
       </c>
       <c r="H44">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I44">
         <v>786</v>
@@ -5995,100 +5995,100 @@
         <v>1057</v>
       </c>
       <c r="K44">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="L44">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M44">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="N44">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O44">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="P44">
         <v>489</v>
       </c>
       <c r="R44">
-        <v>69551</v>
+        <v>69442</v>
       </c>
       <c r="S44">
-        <v>0.003852764250930966</v>
+        <v>0.003858788426503708</v>
       </c>
       <c r="T44">
-        <v>44184</v>
+        <v>44131</v>
       </c>
       <c r="U44">
-        <v>0.004326663061114116</v>
+        <v>0.004331836743902714</v>
       </c>
       <c r="V44">
-        <v>59637</v>
+        <v>59551</v>
       </c>
       <c r="W44">
-        <v>0.005569358523286255</v>
+        <v>0.005593961860868984</v>
       </c>
       <c r="X44">
-        <v>106380</v>
+        <v>106315</v>
       </c>
       <c r="Y44">
-        <v>0.004519805732573482</v>
+        <v>0.004522556602183561</v>
       </c>
       <c r="Z44">
-        <v>132863</v>
+        <v>132940</v>
       </c>
       <c r="AA44">
-        <v>0.004316579111054489</v>
+        <v>0.004314089697114953</v>
       </c>
       <c r="AB44">
-        <v>149861</v>
+        <v>149897</v>
       </c>
       <c r="AC44">
-        <v>0.004834350450564118</v>
+        <v>0.00482658806033567</v>
       </c>
       <c r="AD44">
-        <v>149746</v>
+        <v>149711</v>
       </c>
       <c r="AE44">
-        <v>0.005221481146865783</v>
+        <v>0.005222695469012671</v>
       </c>
       <c r="AF44">
-        <v>183313</v>
+        <v>183296</v>
       </c>
       <c r="AG44">
-        <v>0.005733036828117373</v>
+        <v>0.005733565496628751</v>
       </c>
       <c r="AH44">
-        <v>229612</v>
+        <v>229631</v>
       </c>
       <c r="AI44">
-        <v>0.004875680970108825</v>
+        <v>0.004883904350011701</v>
       </c>
       <c r="AJ44">
-        <v>233439</v>
+        <v>233473</v>
       </c>
       <c r="AK44">
-        <v>0.00530076741817686</v>
+        <v>0.005304237425335935</v>
       </c>
       <c r="AL44">
-        <v>225668</v>
+        <v>225672</v>
       </c>
       <c r="AM44">
-        <v>0.005420938042644713</v>
+        <v>0.005412075804319083</v>
       </c>
       <c r="AN44">
-        <v>202823</v>
+        <v>202848</v>
       </c>
       <c r="AO44">
-        <v>0.005891434873177307</v>
+        <v>0.005885841145999245</v>
       </c>
       <c r="AP44">
-        <v>150731</v>
+        <v>150768</v>
       </c>
       <c r="AQ44">
-        <v>0.00759785363926655</v>
+        <v>0.007609067691740607</v>
       </c>
     </row>
     <row r="45" spans="1:43">
@@ -6108,115 +6108,115 @@
         <v>372</v>
       </c>
       <c r="F45">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G45">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H45">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I45">
         <v>1067</v>
       </c>
       <c r="J45">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="K45">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="L45">
         <v>1549</v>
       </c>
       <c r="M45">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="N45">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="O45">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="P45">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="R45">
-        <v>69307</v>
+        <v>69198</v>
       </c>
       <c r="S45">
-        <v>0.003508216991847709</v>
+        <v>0.003513723683073644</v>
       </c>
       <c r="T45">
-        <v>43962</v>
+        <v>43909</v>
       </c>
       <c r="U45">
-        <v>0.005024443237370994</v>
+        <v>0.005030477442160839</v>
       </c>
       <c r="V45">
-        <v>59265</v>
+        <v>59179</v>
       </c>
       <c r="W45">
-        <v>0.006237738316816741</v>
+        <v>0.006246746486205101</v>
       </c>
       <c r="X45">
-        <v>105856</v>
+        <v>105790</v>
       </c>
       <c r="Y45">
-        <v>0.004925737920661779</v>
+        <v>0.004938155481352584</v>
       </c>
       <c r="Z45">
-        <v>132193</v>
+        <v>132269</v>
       </c>
       <c r="AA45">
-        <v>0.005042788436208727</v>
+        <v>0.005047389799909733</v>
       </c>
       <c r="AB45">
-        <v>148933</v>
+        <v>148970</v>
       </c>
       <c r="AC45">
-        <v>0.00619240496193139</v>
+        <v>0.006184246515940946</v>
       </c>
       <c r="AD45">
-        <v>148679</v>
+        <v>148644</v>
       </c>
       <c r="AE45">
-        <v>0.007125399008988554</v>
+        <v>0.007127064811536895</v>
       </c>
       <c r="AF45">
-        <v>181952</v>
+        <v>181931</v>
       </c>
       <c r="AG45">
-        <v>0.007424459803723686</v>
+        <v>0.007446971019553073</v>
       </c>
       <c r="AH45">
-        <v>228103</v>
+        <v>228125</v>
       </c>
       <c r="AI45">
-        <v>0.006571956169538177</v>
+        <v>0.006558347958246055</v>
       </c>
       <c r="AJ45">
-        <v>231890</v>
+        <v>231924</v>
       </c>
       <c r="AK45">
-        <v>0.006635566464900895</v>
+        <v>0.006634600146483748</v>
       </c>
       <c r="AL45">
-        <v>224035</v>
+        <v>224041</v>
       </c>
       <c r="AM45">
-        <v>0.007236294024850666</v>
+        <v>0.007227303342904746</v>
       </c>
       <c r="AN45">
-        <v>201405</v>
+        <v>201429</v>
       </c>
       <c r="AO45">
-        <v>0.006991317552743032</v>
+        <v>0.006995385707524846</v>
       </c>
       <c r="AP45">
-        <v>149515</v>
+        <v>149554</v>
       </c>
       <c r="AQ45">
-        <v>0.008067351772362686</v>
+        <v>0.008052106547808554</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -6230,121 +6230,121 @@
         <v>561</v>
       </c>
       <c r="D46">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E46">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F46">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="G46">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H46">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="I46">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="J46">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="K46">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="L46">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="M46">
         <v>3534</v>
       </c>
       <c r="N46">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="O46">
         <v>2567</v>
       </c>
       <c r="P46">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="R46">
-        <v>68746</v>
+        <v>68637</v>
       </c>
       <c r="S46">
-        <v>0.008094420477008094</v>
+        <v>0.008107170727477672</v>
       </c>
       <c r="T46">
-        <v>43454</v>
+        <v>43399</v>
       </c>
       <c r="U46">
-        <v>0.01155543423866066</v>
+        <v>0.01161493087977408</v>
       </c>
       <c r="V46">
-        <v>58403</v>
+        <v>58319</v>
       </c>
       <c r="W46">
-        <v>0.01454484096853117</v>
+        <v>0.01453218202402879</v>
       </c>
       <c r="X46">
-        <v>104589</v>
+        <v>104521</v>
       </c>
       <c r="Y46">
-        <v>0.01196909008464329</v>
+        <v>0.01199546270914075</v>
       </c>
       <c r="Z46">
-        <v>130545</v>
+        <v>130622</v>
       </c>
       <c r="AA46">
-        <v>0.0124666207741711</v>
+        <v>0.01245189726995743</v>
       </c>
       <c r="AB46">
-        <v>146562</v>
+        <v>146597</v>
       </c>
       <c r="AC46">
-        <v>0.01591991029523343</v>
+        <v>0.01592938175471571</v>
       </c>
       <c r="AD46">
-        <v>146112</v>
+        <v>146079</v>
       </c>
       <c r="AE46">
-        <v>0.01726538381345046</v>
+        <v>0.01725599418745459</v>
       </c>
       <c r="AF46">
-        <v>178655</v>
+        <v>178635</v>
       </c>
       <c r="AG46">
-        <v>0.01812016355962012</v>
+        <v>0.01811675855131891</v>
       </c>
       <c r="AH46">
-        <v>224633</v>
+        <v>224652</v>
       </c>
       <c r="AI46">
-        <v>0.01521242596546297</v>
+        <v>0.0152241095890411</v>
       </c>
       <c r="AJ46">
-        <v>228340</v>
+        <v>228373</v>
       </c>
       <c r="AK46">
-        <v>0.01530898270731812</v>
+        <v>0.01531105017160794</v>
       </c>
       <c r="AL46">
-        <v>220501</v>
+        <v>220507</v>
       </c>
       <c r="AM46">
-        <v>0.01577432097663312</v>
+        <v>0.01577389852750166</v>
       </c>
       <c r="AN46">
-        <v>198366</v>
+        <v>198392</v>
       </c>
       <c r="AO46">
-        <v>0.0150889997765696</v>
+        <v>0.015077272885235</v>
       </c>
       <c r="AP46">
-        <v>146948</v>
+        <v>146987</v>
       </c>
       <c r="AQ46">
-        <v>0.01716884593519045</v>
+        <v>0.01716436872300306</v>
       </c>
     </row>
     <row r="47" spans="1:43">
@@ -6361,34 +6361,34 @@
         <v>610</v>
       </c>
       <c r="E47">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="F47">
         <v>1653</v>
       </c>
       <c r="G47">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="H47">
-        <v>3586</v>
+        <v>3583</v>
       </c>
       <c r="I47">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="J47">
-        <v>5068</v>
+        <v>5075</v>
       </c>
       <c r="K47">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="L47">
-        <v>5379</v>
+        <v>5375</v>
       </c>
       <c r="M47">
-        <v>5460</v>
+        <v>5469</v>
       </c>
       <c r="N47">
-        <v>5082</v>
+        <v>5074</v>
       </c>
       <c r="O47">
         <v>4407</v>
@@ -6397,82 +6397,82 @@
         <v>1509</v>
       </c>
       <c r="R47">
-        <v>68141</v>
+        <v>68032</v>
       </c>
       <c r="S47">
-        <v>0.008800512029790824</v>
+        <v>0.008814487812695776</v>
       </c>
       <c r="T47">
-        <v>42844</v>
+        <v>42789</v>
       </c>
       <c r="U47">
-        <v>0.01403783311087587</v>
+        <v>0.01405562340146086</v>
       </c>
       <c r="V47">
-        <v>57342</v>
+        <v>57255</v>
       </c>
       <c r="W47">
-        <v>0.01816687498929849</v>
+        <v>0.01824448293009139</v>
       </c>
       <c r="X47">
-        <v>102936</v>
+        <v>102868</v>
       </c>
       <c r="Y47">
-        <v>0.01580472133780799</v>
+        <v>0.01581500368347031</v>
       </c>
       <c r="Z47">
-        <v>128175</v>
+        <v>128249</v>
       </c>
       <c r="AA47">
-        <v>0.01815465931288062</v>
+        <v>0.01816692440783329</v>
       </c>
       <c r="AB47">
-        <v>142976</v>
+        <v>143014</v>
       </c>
       <c r="AC47">
-        <v>0.02446746086980254</v>
+        <v>0.02444115500317196</v>
       </c>
       <c r="AD47">
-        <v>142376</v>
+        <v>142344</v>
       </c>
       <c r="AE47">
-        <v>0.02556942619360491</v>
+        <v>0.0255683568480069</v>
       </c>
       <c r="AF47">
-        <v>173587</v>
+        <v>173560</v>
       </c>
       <c r="AG47">
-        <v>0.02836752399876858</v>
+        <v>0.02840988608055532</v>
       </c>
       <c r="AH47">
-        <v>219482</v>
+        <v>219502</v>
       </c>
       <c r="AI47">
-        <v>0.02293073591146448</v>
+        <v>0.02292434520947955</v>
       </c>
       <c r="AJ47">
-        <v>222961</v>
+        <v>222998</v>
       </c>
       <c r="AK47">
-        <v>0.02355697643864413</v>
+        <v>0.02353605723969121</v>
       </c>
       <c r="AL47">
-        <v>215041</v>
+        <v>215038</v>
       </c>
       <c r="AM47">
-        <v>0.02476179246352624</v>
+        <v>0.02480193372545996</v>
       </c>
       <c r="AN47">
-        <v>193284</v>
+        <v>193318</v>
       </c>
       <c r="AO47">
-        <v>0.02561930976074529</v>
+        <v>0.02557562804951813</v>
       </c>
       <c r="AP47">
-        <v>142541</v>
+        <v>142580</v>
       </c>
       <c r="AQ47">
-        <v>0.0299902006151836</v>
+        <v>0.02998224332764122</v>
       </c>
     </row>
     <row r="48" spans="1:43">
@@ -6483,124 +6483,124 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D48">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E48">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F48">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G48">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="H48">
-        <v>3687</v>
+        <v>3692</v>
       </c>
       <c r="I48">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="J48">
-        <v>5067</v>
+        <v>5070</v>
       </c>
       <c r="K48">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="L48">
         <v>5441</v>
       </c>
       <c r="M48">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="N48">
-        <v>5262</v>
+        <v>5263</v>
       </c>
       <c r="O48">
-        <v>4819</v>
+        <v>4816</v>
       </c>
       <c r="P48">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="R48">
-        <v>67174</v>
+        <v>67064</v>
       </c>
       <c r="S48">
-        <v>0.01419116244258229</v>
+        <v>0.01422859830667921</v>
       </c>
       <c r="T48">
-        <v>41947</v>
+        <v>41891</v>
       </c>
       <c r="U48">
-        <v>0.02093642050228737</v>
+        <v>0.02098670218981514</v>
       </c>
       <c r="V48">
-        <v>55855</v>
+        <v>55769</v>
       </c>
       <c r="W48">
-        <v>0.02593212653901154</v>
+        <v>0.02595406514714872</v>
       </c>
       <c r="X48">
-        <v>100765</v>
+        <v>100698</v>
       </c>
       <c r="Y48">
-        <v>0.02109077485039248</v>
+        <v>0.0210949955282498</v>
       </c>
       <c r="Z48">
-        <v>125331</v>
+        <v>125404</v>
       </c>
       <c r="AA48">
-        <v>0.02218841427735518</v>
+        <v>0.02218340883749581</v>
       </c>
       <c r="AB48">
-        <v>139289</v>
+        <v>139322</v>
       </c>
       <c r="AC48">
-        <v>0.02578754476275739</v>
+        <v>0.02581565441145622</v>
       </c>
       <c r="AD48">
-        <v>138428</v>
+        <v>138397</v>
       </c>
       <c r="AE48">
-        <v>0.02772939259425746</v>
+        <v>0.02772860113527792</v>
       </c>
       <c r="AF48">
-        <v>168520</v>
+        <v>168490</v>
       </c>
       <c r="AG48">
-        <v>0.02918997390357573</v>
+        <v>0.02921179995390643</v>
       </c>
       <c r="AH48">
-        <v>214300</v>
+        <v>214321</v>
       </c>
       <c r="AI48">
-        <v>0.02361013659434487</v>
+        <v>0.02360342958150723</v>
       </c>
       <c r="AJ48">
-        <v>217520</v>
+        <v>217557</v>
       </c>
       <c r="AK48">
-        <v>0.02440337099313333</v>
+        <v>0.02439932196701316</v>
       </c>
       <c r="AL48">
-        <v>209339</v>
+        <v>209337</v>
       </c>
       <c r="AM48">
-        <v>0.02651587371710511</v>
+        <v>0.02651159329978887</v>
       </c>
       <c r="AN48">
-        <v>188022</v>
+        <v>188055</v>
       </c>
       <c r="AO48">
-        <v>0.02722418824113739</v>
+        <v>0.02722457298337454</v>
       </c>
       <c r="AP48">
-        <v>137722</v>
+        <v>137764</v>
       </c>
       <c r="AQ48">
-        <v>0.03380781669835346</v>
+        <v>0.03377752840510591</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -6611,124 +6611,124 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D49">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E49">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F49">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="G49">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H49">
         <v>2060</v>
       </c>
       <c r="I49">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="J49">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="K49">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="L49">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="M49">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="N49">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="O49">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="P49">
         <v>895</v>
       </c>
       <c r="R49">
-        <v>66353</v>
+        <v>66241</v>
       </c>
       <c r="S49">
-        <v>0.01222199065114479</v>
+        <v>0.01227185971609209</v>
       </c>
       <c r="T49">
-        <v>41236</v>
+        <v>41182</v>
       </c>
       <c r="U49">
-        <v>0.01694996066464825</v>
+        <v>0.01692487646511184</v>
       </c>
       <c r="V49">
-        <v>54724</v>
+        <v>54637</v>
       </c>
       <c r="W49">
-        <v>0.02024885865186644</v>
+        <v>0.02029801502626907</v>
       </c>
       <c r="X49">
-        <v>99150</v>
+        <v>99082</v>
       </c>
       <c r="Y49">
-        <v>0.01602739046295837</v>
+        <v>0.01604798506425152</v>
       </c>
       <c r="Z49">
-        <v>123456</v>
+        <v>123528</v>
       </c>
       <c r="AA49">
-        <v>0.01496038490078273</v>
+        <v>0.01495965040987528</v>
       </c>
       <c r="AB49">
-        <v>137229</v>
+        <v>137262</v>
       </c>
       <c r="AC49">
-        <v>0.01478939471171449</v>
+        <v>0.01478589167539943</v>
       </c>
       <c r="AD49">
-        <v>136351</v>
+        <v>136322</v>
       </c>
       <c r="AE49">
-        <v>0.01500418990377669</v>
+        <v>0.01499309956140668</v>
       </c>
       <c r="AF49">
-        <v>166170</v>
+        <v>166139</v>
       </c>
       <c r="AG49">
-        <v>0.01394493235224306</v>
+        <v>0.01395335034720161</v>
       </c>
       <c r="AH49">
-        <v>211843</v>
+        <v>211863</v>
       </c>
       <c r="AI49">
-        <v>0.0114652356509566</v>
+        <v>0.01146877814119942</v>
       </c>
       <c r="AJ49">
-        <v>214720</v>
+        <v>214759</v>
       </c>
       <c r="AK49">
-        <v>0.01287237955130563</v>
+        <v>0.01286099734782149</v>
       </c>
       <c r="AL49">
-        <v>206488</v>
+        <v>206487</v>
       </c>
       <c r="AM49">
-        <v>0.0136190580828226</v>
+        <v>0.01361441121254246</v>
       </c>
       <c r="AN49">
-        <v>185513</v>
+        <v>185544</v>
       </c>
       <c r="AO49">
-        <v>0.01334418312750636</v>
+        <v>0.01335247666905958</v>
       </c>
       <c r="AP49">
-        <v>135516</v>
+        <v>135559</v>
       </c>
       <c r="AQ49">
-        <v>0.01601777493791842</v>
+        <v>0.01600563282134665</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -6739,28 +6739,28 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D50">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E50">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F50">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="G50">
         <v>2078</v>
       </c>
       <c r="H50">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I50">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="J50">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="K50">
         <v>1648</v>
@@ -6769,94 +6769,94 @@
         <v>1815</v>
       </c>
       <c r="M50">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="N50">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="O50">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="P50">
         <v>667</v>
       </c>
       <c r="R50">
-        <v>65286</v>
+        <v>65173</v>
       </c>
       <c r="S50">
-        <v>0.01608065950296143</v>
+        <v>0.01612294500384958</v>
       </c>
       <c r="T50">
-        <v>40363</v>
+        <v>40308</v>
       </c>
       <c r="U50">
-        <v>0.02117082161218353</v>
+        <v>0.02122286435821475</v>
       </c>
       <c r="V50">
-        <v>53275</v>
+        <v>53189</v>
       </c>
       <c r="W50">
-        <v>0.02647832760763102</v>
+        <v>0.02650218716254553</v>
       </c>
       <c r="X50">
-        <v>97076</v>
+        <v>97007</v>
       </c>
       <c r="Y50">
-        <v>0.02091780131114473</v>
+        <v>0.02094224985365657</v>
       </c>
       <c r="Z50">
-        <v>121378</v>
+        <v>121450</v>
       </c>
       <c r="AA50">
-        <v>0.01683190772420944</v>
+        <v>0.01682209701444207</v>
       </c>
       <c r="AB50">
-        <v>135852</v>
+        <v>135884</v>
       </c>
       <c r="AC50">
-        <v>0.01003432219137354</v>
+        <v>0.01003919511590972</v>
       </c>
       <c r="AD50">
-        <v>135005</v>
+        <v>134979</v>
       </c>
       <c r="AE50">
-        <v>0.009871581433212812</v>
+        <v>0.009851674711345198</v>
       </c>
       <c r="AF50">
-        <v>164574</v>
+        <v>164542</v>
       </c>
       <c r="AG50">
-        <v>0.009604621772883192</v>
+        <v>0.009612432962760098</v>
       </c>
       <c r="AH50">
-        <v>210195</v>
+        <v>210215</v>
       </c>
       <c r="AI50">
-        <v>0.007779346025122378</v>
+        <v>0.007778611649981356</v>
       </c>
       <c r="AJ50">
-        <v>212905</v>
+        <v>212944</v>
       </c>
       <c r="AK50">
-        <v>0.008452868852459017</v>
+        <v>0.008451333820701344</v>
       </c>
       <c r="AL50">
-        <v>204618</v>
+        <v>204615</v>
       </c>
       <c r="AM50">
-        <v>0.009056216341869745</v>
+        <v>0.009065946040186549</v>
       </c>
       <c r="AN50">
-        <v>183831</v>
+        <v>183864</v>
       </c>
       <c r="AO50">
-        <v>0.009066750039080819</v>
+        <v>0.009054456085887983</v>
       </c>
       <c r="AP50">
-        <v>134118</v>
+        <v>134159</v>
       </c>
       <c r="AQ50">
-        <v>0.01031612503320641</v>
+        <v>0.01032760642967269</v>
       </c>
     </row>
     <row r="51" spans="1:43">
@@ -6867,124 +6867,124 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D51">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E51">
         <v>1814</v>
       </c>
       <c r="F51">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="G51">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="H51">
         <v>954</v>
       </c>
       <c r="I51">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J51">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K51">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="L51">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M51">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="N51">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="O51">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="P51">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="R51">
-        <v>63923</v>
+        <v>63809</v>
       </c>
       <c r="S51">
-        <v>0.02087737033973593</v>
+        <v>0.020928912279625</v>
       </c>
       <c r="T51">
-        <v>39347</v>
+        <v>39290</v>
       </c>
       <c r="U51">
-        <v>0.02517156802021654</v>
+        <v>0.02525553240051603</v>
       </c>
       <c r="V51">
-        <v>51461</v>
+        <v>51375</v>
       </c>
       <c r="W51">
-        <v>0.03404974190520882</v>
+        <v>0.03410479610445769</v>
       </c>
       <c r="X51">
-        <v>94592</v>
+        <v>94521</v>
       </c>
       <c r="Y51">
-        <v>0.02558819893691541</v>
+        <v>0.02562701660704898</v>
       </c>
       <c r="Z51">
-        <v>119060</v>
+        <v>119136</v>
       </c>
       <c r="AA51">
-        <v>0.01909736525564765</v>
+        <v>0.01905310827501029</v>
       </c>
       <c r="AB51">
-        <v>134898</v>
+        <v>134930</v>
       </c>
       <c r="AC51">
-        <v>0.007022347849129936</v>
+        <v>0.007020694121456537</v>
       </c>
       <c r="AD51">
-        <v>134041</v>
+        <v>134016</v>
       </c>
       <c r="AE51">
-        <v>0.007140476278656346</v>
+        <v>0.007134443135598871</v>
       </c>
       <c r="AF51">
-        <v>163322</v>
+        <v>163288</v>
       </c>
       <c r="AG51">
-        <v>0.007607520021388555</v>
+        <v>0.007621154477276319</v>
       </c>
       <c r="AH51">
-        <v>208968</v>
+        <v>208986</v>
       </c>
       <c r="AI51">
-        <v>0.005837436665953043</v>
+        <v>0.005846395357134363</v>
       </c>
       <c r="AJ51">
-        <v>211539</v>
+        <v>211582</v>
       </c>
       <c r="AK51">
-        <v>0.006416007139334445</v>
+        <v>0.006396047787211661</v>
       </c>
       <c r="AL51">
-        <v>203171</v>
+        <v>203167</v>
       </c>
       <c r="AM51">
-        <v>0.007071714120947327</v>
+        <v>0.007076705031400435</v>
       </c>
       <c r="AN51">
-        <v>182531</v>
+        <v>182559</v>
       </c>
       <c r="AO51">
-        <v>0.007071712605599708</v>
+        <v>0.007097637384153505</v>
       </c>
       <c r="AP51">
-        <v>132898</v>
+        <v>132943</v>
       </c>
       <c r="AQ51">
-        <v>0.009096467289998359</v>
+        <v>0.009063871972808384</v>
       </c>
     </row>
     <row r="52" spans="1:43">
@@ -6995,22 +6995,22 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D52">
         <v>401</v>
       </c>
       <c r="E52">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F52">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G52">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H52">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I52">
         <v>494</v>
@@ -7025,94 +7025,94 @@
         <v>669</v>
       </c>
       <c r="M52">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N52">
         <v>644</v>
       </c>
       <c r="O52">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P52">
         <v>306</v>
       </c>
       <c r="R52">
-        <v>63410</v>
+        <v>63295</v>
       </c>
       <c r="S52">
-        <v>0.008025280415499898</v>
+        <v>0.008055290006111991</v>
       </c>
       <c r="T52">
-        <v>38946</v>
+        <v>38889</v>
       </c>
       <c r="U52">
-        <v>0.01019137418354639</v>
+        <v>0.0102061593280733</v>
       </c>
       <c r="V52">
-        <v>50725</v>
+        <v>50637</v>
       </c>
       <c r="W52">
-        <v>0.01430209284701036</v>
+        <v>0.01436496350364964</v>
       </c>
       <c r="X52">
-        <v>93508</v>
+        <v>93436</v>
       </c>
       <c r="Y52">
-        <v>0.01145974289580514</v>
+        <v>0.01147893060801303</v>
       </c>
       <c r="Z52">
-        <v>117988</v>
+        <v>118067</v>
       </c>
       <c r="AA52">
-        <v>0.009003863598185788</v>
+        <v>0.008972938490464679</v>
       </c>
       <c r="AB52">
-        <v>134420</v>
+        <v>134453</v>
       </c>
       <c r="AC52">
-        <v>0.003543417989888657</v>
+        <v>0.003535166382568739</v>
       </c>
       <c r="AD52">
-        <v>133547</v>
+        <v>133522</v>
       </c>
       <c r="AE52">
-        <v>0.003685439529696138</v>
+        <v>0.003686127029608405</v>
       </c>
       <c r="AF52">
-        <v>162747</v>
+        <v>162713</v>
       </c>
       <c r="AG52">
-        <v>0.003520652453435544</v>
+        <v>0.00352138552741169</v>
       </c>
       <c r="AH52">
-        <v>208327</v>
+        <v>208345</v>
       </c>
       <c r="AI52">
-        <v>0.003067455304161403</v>
+        <v>0.003067191103710296</v>
       </c>
       <c r="AJ52">
-        <v>210870</v>
+        <v>210913</v>
       </c>
       <c r="AK52">
-        <v>0.003162537404450243</v>
+        <v>0.003161894679131495</v>
       </c>
       <c r="AL52">
-        <v>202474</v>
+        <v>202469</v>
       </c>
       <c r="AM52">
-        <v>0.00343060771468369</v>
+        <v>0.003435597316493328</v>
       </c>
       <c r="AN52">
-        <v>181887</v>
+        <v>181915</v>
       </c>
       <c r="AO52">
-        <v>0.003528167818069259</v>
+        <v>0.003527626685071675</v>
       </c>
       <c r="AP52">
-        <v>132284</v>
+        <v>132330</v>
       </c>
       <c r="AQ52">
-        <v>0.004620084576141101</v>
+        <v>0.004610998698690416</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -7126,19 +7126,19 @@
         <v>459</v>
       </c>
       <c r="D53">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E53">
         <v>620</v>
       </c>
       <c r="F53">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G53">
         <v>981</v>
       </c>
       <c r="H53">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I53">
         <v>433</v>
@@ -7150,97 +7150,97 @@
         <v>513</v>
       </c>
       <c r="L53">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M53">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N53">
         <v>538</v>
       </c>
       <c r="O53">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P53">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R53">
-        <v>62951</v>
+        <v>62836</v>
       </c>
       <c r="S53">
-        <v>0.007238605898123324</v>
+        <v>0.00725175764278379</v>
       </c>
       <c r="T53">
-        <v>38582</v>
+        <v>38523</v>
       </c>
       <c r="U53">
-        <v>0.00934627432855749</v>
+        <v>0.00941140168170948</v>
       </c>
       <c r="V53">
-        <v>50105</v>
+        <v>50017</v>
       </c>
       <c r="W53">
-        <v>0.0122227698373583</v>
+        <v>0.01224401129608784</v>
       </c>
       <c r="X53">
-        <v>92634</v>
+        <v>92564</v>
       </c>
       <c r="Y53">
-        <v>0.009346793857210078</v>
+        <v>0.009332591292435464</v>
       </c>
       <c r="Z53">
-        <v>117007</v>
+        <v>117086</v>
       </c>
       <c r="AA53">
-        <v>0.00831440485473099</v>
+        <v>0.008308841589944693</v>
       </c>
       <c r="AB53">
-        <v>134061</v>
+        <v>134093</v>
       </c>
       <c r="AC53">
-        <v>0.002670733521797352</v>
+        <v>0.00267751556305921</v>
       </c>
       <c r="AD53">
-        <v>133114</v>
+        <v>133089</v>
       </c>
       <c r="AE53">
-        <v>0.003242304207507469</v>
+        <v>0.003242911280538039</v>
       </c>
       <c r="AF53">
-        <v>162194</v>
+        <v>162160</v>
       </c>
       <c r="AG53">
-        <v>0.003397912096689955</v>
+        <v>0.003398622113783164</v>
       </c>
       <c r="AH53">
-        <v>207814</v>
+        <v>207832</v>
       </c>
       <c r="AI53">
-        <v>0.002462474859235721</v>
+        <v>0.002462262113321654</v>
       </c>
       <c r="AJ53">
-        <v>210273</v>
+        <v>210314</v>
       </c>
       <c r="AK53">
-        <v>0.002831128183240859</v>
+        <v>0.002840033568343346</v>
       </c>
       <c r="AL53">
-        <v>201823</v>
+        <v>201819</v>
       </c>
       <c r="AM53">
-        <v>0.003215227634165374</v>
+        <v>0.003210368006954151</v>
       </c>
       <c r="AN53">
-        <v>181349</v>
+        <v>181377</v>
       </c>
       <c r="AO53">
-        <v>0.002957880442252607</v>
+        <v>0.002957425171096391</v>
       </c>
       <c r="AP53">
-        <v>131763</v>
+        <v>131807</v>
       </c>
       <c r="AQ53">
-        <v>0.003938495963230625</v>
+        <v>0.003952240610594725</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -7257,19 +7257,19 @@
         <v>298</v>
       </c>
       <c r="E54">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F54">
         <v>738</v>
       </c>
       <c r="G54">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H54">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I54">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J54">
         <v>682</v>
@@ -7278,97 +7278,97 @@
         <v>825</v>
       </c>
       <c r="L54">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M54">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N54">
         <v>1081</v>
       </c>
       <c r="O54">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="P54">
         <v>487</v>
       </c>
       <c r="R54">
-        <v>62507</v>
+        <v>62392</v>
       </c>
       <c r="S54">
-        <v>0.007053104795793554</v>
+        <v>0.007066013113501814</v>
       </c>
       <c r="T54">
-        <v>38284</v>
+        <v>38225</v>
       </c>
       <c r="U54">
-        <v>0.007723809030117671</v>
+        <v>0.007735638449757288</v>
       </c>
       <c r="V54">
-        <v>49575</v>
+        <v>49485</v>
       </c>
       <c r="W54">
-        <v>0.01057778664803912</v>
+        <v>0.01063638362956595</v>
       </c>
       <c r="X54">
-        <v>91896</v>
+        <v>91826</v>
       </c>
       <c r="Y54">
-        <v>0.007966837230390569</v>
+        <v>0.007972862019791712</v>
       </c>
       <c r="Z54">
-        <v>116248</v>
+        <v>116326</v>
       </c>
       <c r="AA54">
-        <v>0.006486791388549403</v>
+        <v>0.006490955366141127</v>
       </c>
       <c r="AB54">
-        <v>133567</v>
+        <v>133598</v>
       </c>
       <c r="AC54">
-        <v>0.003684889714383751</v>
+        <v>0.003691467861857069</v>
       </c>
       <c r="AD54">
-        <v>132589</v>
+        <v>132566</v>
       </c>
       <c r="AE54">
-        <v>0.003943987860029749</v>
+        <v>0.0039297011774076</v>
       </c>
       <c r="AF54">
-        <v>161512</v>
+        <v>161478</v>
       </c>
       <c r="AG54">
-        <v>0.004204841116194187</v>
+        <v>0.004205722742969906</v>
       </c>
       <c r="AH54">
-        <v>206989</v>
+        <v>207007</v>
       </c>
       <c r="AI54">
-        <v>0.00396989615714052</v>
+        <v>0.003969552330728665</v>
       </c>
       <c r="AJ54">
-        <v>209383</v>
+        <v>209423</v>
       </c>
       <c r="AK54">
-        <v>0.00423259286736766</v>
+        <v>0.004236522532974505</v>
       </c>
       <c r="AL54">
-        <v>200780</v>
+        <v>200777</v>
       </c>
       <c r="AM54">
-        <v>0.00516789464035318</v>
+        <v>0.005163042131811177</v>
       </c>
       <c r="AN54">
-        <v>180268</v>
+        <v>180296</v>
       </c>
       <c r="AO54">
-        <v>0.005960882056145885</v>
+        <v>0.005959961847422771</v>
       </c>
       <c r="AP54">
-        <v>130814</v>
+        <v>130856</v>
       </c>
       <c r="AQ54">
-        <v>0.007202325387248317</v>
+        <v>0.007215094797696632</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -7391,10 +7391,10 @@
         <v>754</v>
       </c>
       <c r="G55">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H55">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I55">
         <v>598</v>
@@ -7406,97 +7406,97 @@
         <v>781</v>
       </c>
       <c r="L55">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M55">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="N55">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O55">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="P55">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R55">
-        <v>62086</v>
+        <v>61971</v>
       </c>
       <c r="S55">
-        <v>0.006735245652486921</v>
+        <v>0.006747659956404667</v>
       </c>
       <c r="T55">
-        <v>37950</v>
+        <v>37891</v>
       </c>
       <c r="U55">
-        <v>0.008724271236025493</v>
+        <v>0.008737737083060824</v>
       </c>
       <c r="V55">
-        <v>49071</v>
+        <v>48981</v>
       </c>
       <c r="W55">
-        <v>0.01016641452344932</v>
+        <v>0.01018490451652016</v>
       </c>
       <c r="X55">
-        <v>91142</v>
+        <v>91072</v>
       </c>
       <c r="Y55">
-        <v>0.008204927309132063</v>
+        <v>0.00821118201816479</v>
       </c>
       <c r="Z55">
-        <v>115539</v>
+        <v>115616</v>
       </c>
       <c r="AA55">
-        <v>0.006099029660725346</v>
+        <v>0.006103536612623145</v>
       </c>
       <c r="AB55">
-        <v>133018</v>
+        <v>133050</v>
       </c>
       <c r="AC55">
-        <v>0.004110296705024444</v>
+        <v>0.004101857812242698</v>
       </c>
       <c r="AD55">
-        <v>131991</v>
+        <v>131968</v>
       </c>
       <c r="AE55">
-        <v>0.004510178069070586</v>
+        <v>0.004510960578127121</v>
       </c>
       <c r="AF55">
-        <v>160797</v>
+        <v>160763</v>
       </c>
       <c r="AG55">
-        <v>0.004426915647134579</v>
+        <v>0.004427847756350711</v>
       </c>
       <c r="AH55">
-        <v>206208</v>
+        <v>206226</v>
       </c>
       <c r="AI55">
-        <v>0.00377314736531893</v>
+        <v>0.003772819276642819</v>
       </c>
       <c r="AJ55">
-        <v>208434</v>
+        <v>208473</v>
       </c>
       <c r="AK55">
-        <v>0.004532364136534485</v>
+        <v>0.004536273475215234</v>
       </c>
       <c r="AL55">
-        <v>199655</v>
+        <v>199649</v>
       </c>
       <c r="AM55">
-        <v>0.00560314772387688</v>
+        <v>0.00561817339635516</v>
       </c>
       <c r="AN55">
-        <v>179153</v>
+        <v>179182</v>
       </c>
       <c r="AO55">
-        <v>0.006185235316306832</v>
+        <v>0.006178728313440121</v>
       </c>
       <c r="AP55">
-        <v>129786</v>
+        <v>129829</v>
       </c>
       <c r="AQ55">
-        <v>0.007858486094760499</v>
+        <v>0.007848321819404536</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -7510,121 +7510,121 @@
         <v>357</v>
       </c>
       <c r="D56">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E56">
         <v>345</v>
       </c>
       <c r="F56">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G56">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H56">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I56">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J56">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K56">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L56">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M56">
         <v>884</v>
       </c>
       <c r="N56">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="O56">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="P56">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="R56">
-        <v>61729</v>
+        <v>61614</v>
       </c>
       <c r="S56">
-        <v>0.005750088586798956</v>
+        <v>0.005760759064723823</v>
       </c>
       <c r="T56">
-        <v>37711</v>
+        <v>37651</v>
       </c>
       <c r="U56">
-        <v>0.006297760210803689</v>
+        <v>0.006333957931962736</v>
       </c>
       <c r="V56">
-        <v>48726</v>
+        <v>48636</v>
       </c>
       <c r="W56">
-        <v>0.007030629088463655</v>
+        <v>0.007043547498009432</v>
       </c>
       <c r="X56">
-        <v>90681</v>
+        <v>90612</v>
       </c>
       <c r="Y56">
-        <v>0.005058041298194027</v>
+        <v>0.005050948699929726</v>
       </c>
       <c r="Z56">
-        <v>115053</v>
+        <v>115129</v>
       </c>
       <c r="AA56">
-        <v>0.00420637187443201</v>
+        <v>0.004212219761970662</v>
       </c>
       <c r="AB56">
-        <v>132620</v>
+        <v>132651</v>
       </c>
       <c r="AC56">
-        <v>0.002992076260355742</v>
+        <v>0.002998872604284104</v>
       </c>
       <c r="AD56">
-        <v>131501</v>
+        <v>131479</v>
       </c>
       <c r="AE56">
-        <v>0.003712374328552704</v>
+        <v>0.003705443743937924</v>
       </c>
       <c r="AF56">
-        <v>160235</v>
+        <v>160197</v>
       </c>
       <c r="AG56">
-        <v>0.003495090082526415</v>
+        <v>0.003520710611272494</v>
       </c>
       <c r="AH56">
-        <v>205555</v>
+        <v>205575</v>
       </c>
       <c r="AI56">
-        <v>0.003166705462445686</v>
+        <v>0.003156730965057752</v>
       </c>
       <c r="AJ56">
-        <v>207639</v>
+        <v>207680</v>
       </c>
       <c r="AK56">
-        <v>0.00381415699933792</v>
+        <v>0.003803849899027692</v>
       </c>
       <c r="AL56">
-        <v>198771</v>
+        <v>198765</v>
       </c>
       <c r="AM56">
-        <v>0.004427637674989357</v>
+        <v>0.004427770737644566</v>
       </c>
       <c r="AN56">
-        <v>178332</v>
+        <v>178358</v>
       </c>
       <c r="AO56">
-        <v>0.004582675143592349</v>
+        <v>0.004598676206315366</v>
       </c>
       <c r="AP56">
-        <v>128952</v>
+        <v>128998</v>
       </c>
       <c r="AQ56">
-        <v>0.006425962738662105</v>
+        <v>0.006400727110275824</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -7638,10 +7638,10 @@
         <v>252</v>
       </c>
       <c r="D57">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E57">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F57">
         <v>374</v>
@@ -7659,100 +7659,100 @@
         <v>419</v>
       </c>
       <c r="K57">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L57">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M57">
         <v>647</v>
       </c>
       <c r="N57">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O57">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P57">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R57">
-        <v>61477</v>
+        <v>61362</v>
       </c>
       <c r="S57">
-        <v>0.00408235999287207</v>
+        <v>0.00408997955010225</v>
       </c>
       <c r="T57">
-        <v>37541</v>
+        <v>37480</v>
       </c>
       <c r="U57">
-        <v>0.004507968497255443</v>
+        <v>0.004541712039520863</v>
       </c>
       <c r="V57">
-        <v>48437</v>
+        <v>48348</v>
       </c>
       <c r="W57">
-        <v>0.005931125066699503</v>
+        <v>0.005921539600296077</v>
       </c>
       <c r="X57">
-        <v>90307</v>
+        <v>90238</v>
       </c>
       <c r="Y57">
-        <v>0.004124347989104663</v>
+        <v>0.004127488632852161</v>
       </c>
       <c r="Z57">
-        <v>114666</v>
+        <v>114742</v>
       </c>
       <c r="AA57">
-        <v>0.003363667179473808</v>
+        <v>0.003361446724978068</v>
       </c>
       <c r="AB57">
-        <v>132318</v>
+        <v>132349</v>
       </c>
       <c r="AC57">
-        <v>0.002277182928668376</v>
+        <v>0.002276650760265659</v>
       </c>
       <c r="AD57">
-        <v>131141</v>
+        <v>131119</v>
       </c>
       <c r="AE57">
-        <v>0.002737621767134851</v>
+        <v>0.002738079845450604</v>
       </c>
       <c r="AF57">
-        <v>159816</v>
+        <v>159778</v>
       </c>
       <c r="AG57">
-        <v>0.002614909351889412</v>
+        <v>0.002615529629144116</v>
       </c>
       <c r="AH57">
-        <v>205121</v>
+        <v>205140</v>
       </c>
       <c r="AI57">
-        <v>0.002111357057721778</v>
+        <v>0.002116016052535571</v>
       </c>
       <c r="AJ57">
-        <v>207125</v>
+        <v>207167</v>
       </c>
       <c r="AK57">
-        <v>0.002475450180361108</v>
+        <v>0.002470146379044684</v>
       </c>
       <c r="AL57">
-        <v>198124</v>
+        <v>198118</v>
       </c>
       <c r="AM57">
-        <v>0.003255001987211414</v>
+        <v>0.003255100244006742</v>
       </c>
       <c r="AN57">
-        <v>177662</v>
+        <v>177686</v>
       </c>
       <c r="AO57">
-        <v>0.003757037435793913</v>
+        <v>0.003767703158815416</v>
       </c>
       <c r="AP57">
-        <v>128355</v>
+        <v>128402</v>
       </c>
       <c r="AQ57">
-        <v>0.004629629629629629</v>
+        <v>0.004620226670180933</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -7766,13 +7766,13 @@
         <v>107</v>
       </c>
       <c r="D58">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G58">
         <v>173</v>
@@ -7793,94 +7793,94 @@
         <v>313</v>
       </c>
       <c r="M58">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N58">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O58">
         <v>368</v>
       </c>
       <c r="P58">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R58">
-        <v>61370</v>
+        <v>61255</v>
       </c>
       <c r="S58">
-        <v>0.001740488312702311</v>
+        <v>0.001743750203709136</v>
       </c>
       <c r="T58">
-        <v>37474</v>
+        <v>37411</v>
       </c>
       <c r="U58">
-        <v>0.001784715377853547</v>
+        <v>0.001840981856990395</v>
       </c>
       <c r="V58">
-        <v>48333</v>
+        <v>48245</v>
       </c>
       <c r="W58">
-        <v>0.002147118938001941</v>
+        <v>0.002130388020186978</v>
       </c>
       <c r="X58">
-        <v>90161</v>
+        <v>90091</v>
       </c>
       <c r="Y58">
-        <v>0.001616707453464294</v>
+        <v>0.001629025465989938</v>
       </c>
       <c r="Z58">
-        <v>114493</v>
+        <v>114569</v>
       </c>
       <c r="AA58">
-        <v>0.001508729701916872</v>
+        <v>0.00150773038643217</v>
       </c>
       <c r="AB58">
-        <v>132147</v>
+        <v>132178</v>
       </c>
       <c r="AC58">
-        <v>0.001292341178071011</v>
+        <v>0.00129203847403456</v>
       </c>
       <c r="AD58">
-        <v>130964</v>
+        <v>130942</v>
       </c>
       <c r="AE58">
-        <v>0.001349692315904256</v>
+        <v>0.001349918776073643</v>
       </c>
       <c r="AF58">
-        <v>159574</v>
+        <v>159536</v>
       </c>
       <c r="AG58">
-        <v>0.001514241377584222</v>
+        <v>0.001514601509594562</v>
       </c>
       <c r="AH58">
-        <v>204894</v>
+        <v>204913</v>
       </c>
       <c r="AI58">
-        <v>0.001106663871568489</v>
+        <v>0.001106561372721068</v>
       </c>
       <c r="AJ58">
-        <v>206812</v>
+        <v>206854</v>
       </c>
       <c r="AK58">
-        <v>0.001511164755582378</v>
+        <v>0.001510858389608384</v>
       </c>
       <c r="AL58">
-        <v>197750</v>
+        <v>197742</v>
       </c>
       <c r="AM58">
-        <v>0.001887706688740385</v>
+        <v>0.001897858851795395</v>
       </c>
       <c r="AN58">
-        <v>177314</v>
+        <v>177339</v>
       </c>
       <c r="AO58">
-        <v>0.001958775652643784</v>
+        <v>0.001952883175939579</v>
       </c>
       <c r="AP58">
-        <v>127987</v>
+        <v>128034</v>
       </c>
       <c r="AQ58">
-        <v>0.002867048420396557</v>
+        <v>0.00286599897197863</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -7891,13 +7891,13 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <v>19</v>
       </c>
       <c r="E59">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <v>48</v>
@@ -7906,25 +7906,25 @@
         <v>62</v>
       </c>
       <c r="H59">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I59">
         <v>120</v>
       </c>
       <c r="J59">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K59">
         <v>158</v>
       </c>
       <c r="L59">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M59">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N59">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O59">
         <v>236</v>
@@ -7933,82 +7933,82 @@
         <v>132</v>
       </c>
       <c r="R59">
-        <v>61320</v>
+        <v>61204</v>
       </c>
       <c r="S59">
-        <v>0.0008147303242626691</v>
+        <v>0.000832585095094278</v>
       </c>
       <c r="T59">
-        <v>37455</v>
+        <v>37392</v>
       </c>
       <c r="U59">
-        <v>0.0005070181992848375</v>
+        <v>0.0005078720162519045</v>
       </c>
       <c r="V59">
-        <v>48299</v>
+        <v>48208</v>
       </c>
       <c r="W59">
-        <v>0.0007034531272629466</v>
+        <v>0.0007669188516944761</v>
       </c>
       <c r="X59">
-        <v>90113</v>
+        <v>90043</v>
       </c>
       <c r="Y59">
-        <v>0.0005323809629440668</v>
+        <v>0.0005327946187743504</v>
       </c>
       <c r="Z59">
-        <v>114431</v>
+        <v>114507</v>
       </c>
       <c r="AA59">
-        <v>0.0005415178220502564</v>
+        <v>0.0005411586031125348</v>
       </c>
       <c r="AB59">
-        <v>132064</v>
+        <v>132090</v>
       </c>
       <c r="AC59">
-        <v>0.0006280884166874768</v>
+        <v>0.0006657688874094024</v>
       </c>
       <c r="AD59">
-        <v>130844</v>
+        <v>130822</v>
       </c>
       <c r="AE59">
-        <v>0.0009162823371308146</v>
+        <v>0.0009164362847673015</v>
       </c>
       <c r="AF59">
-        <v>159409</v>
+        <v>159370</v>
       </c>
       <c r="AG59">
-        <v>0.001034003033075564</v>
+        <v>0.001040517500752181</v>
       </c>
       <c r="AH59">
-        <v>204736</v>
+        <v>204755</v>
       </c>
       <c r="AI59">
-        <v>0.0007711304381777895</v>
+        <v>0.0007710589372074978</v>
       </c>
       <c r="AJ59">
-        <v>206635</v>
+        <v>206676</v>
       </c>
       <c r="AK59">
-        <v>0.00085584975726747</v>
+        <v>0.0008605103116207566</v>
       </c>
       <c r="AL59">
-        <v>197527</v>
+        <v>197518</v>
       </c>
       <c r="AM59">
-        <v>0.001127686472819216</v>
+        <v>0.001132789189954587</v>
       </c>
       <c r="AN59">
-        <v>177082</v>
+        <v>177108</v>
       </c>
       <c r="AO59">
-        <v>0.001308413323257047</v>
+        <v>0.00130258995483227</v>
       </c>
       <c r="AP59">
-        <v>127751</v>
+        <v>127798</v>
       </c>
       <c r="AQ59">
-        <v>0.00184393727487948</v>
+        <v>0.001843260383960511</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -8019,124 +8019,124 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G60">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I60">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J60">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K60">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L60">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M60">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="N60">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="O60">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="P60">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R60">
-        <v>61296</v>
+        <v>61175</v>
       </c>
       <c r="S60">
-        <v>0.0003913894324853229</v>
+        <v>0.0004738252401803803</v>
       </c>
       <c r="T60">
-        <v>37442</v>
+        <v>37378</v>
       </c>
       <c r="U60">
-        <v>0.0003470831664664264</v>
+        <v>0.0003744116388532306</v>
       </c>
       <c r="V60">
-        <v>48279</v>
+        <v>48185</v>
       </c>
       <c r="W60">
-        <v>0.0004140872481831922</v>
+        <v>0.0004770992366412214</v>
       </c>
       <c r="X60">
-        <v>90096</v>
+        <v>90017</v>
       </c>
       <c r="Y60">
-        <v>0.0001886520257898417</v>
+        <v>0.0002887509301111691</v>
       </c>
       <c r="Z60">
-        <v>114409</v>
+        <v>114475</v>
       </c>
       <c r="AA60">
-        <v>0.0001922555950747612</v>
+        <v>0.0002794588977093103</v>
       </c>
       <c r="AB60">
-        <v>132027</v>
+        <v>132039</v>
       </c>
       <c r="AC60">
-        <v>0.0002801671916646474</v>
+        <v>0.0003861003861003861</v>
       </c>
       <c r="AD60">
-        <v>130802</v>
+        <v>130765</v>
       </c>
       <c r="AE60">
-        <v>0.0003209929381553606</v>
+        <v>0.0004357065325403984</v>
       </c>
       <c r="AF60">
-        <v>159366</v>
+        <v>159309</v>
       </c>
       <c r="AG60">
-        <v>0.0002697463756751501</v>
+        <v>0.0003827571061052896</v>
       </c>
       <c r="AH60">
-        <v>204687</v>
+        <v>204681</v>
       </c>
       <c r="AI60">
-        <v>0.0002393326039387308</v>
+        <v>0.0003614075358355107</v>
       </c>
       <c r="AJ60">
-        <v>206571</v>
+        <v>206587</v>
       </c>
       <c r="AK60">
-        <v>0.0003097248771989256</v>
+        <v>0.0004306257136774468</v>
       </c>
       <c r="AL60">
-        <v>197454</v>
+        <v>197412</v>
       </c>
       <c r="AM60">
-        <v>0.0003695697297078374</v>
+        <v>0.0005366599499792424</v>
       </c>
       <c r="AN60">
-        <v>177012</v>
+        <v>176990</v>
       </c>
       <c r="AO60">
-        <v>0.0003952970940016489</v>
+        <v>0.0006662601350588341</v>
       </c>
       <c r="AP60">
-        <v>127654</v>
+        <v>127666</v>
       </c>
       <c r="AQ60">
-        <v>0.0007592895554633623</v>
+        <v>0.001032880013771733</v>
       </c>
     </row>
   </sheetData>
